--- a/201908選抜アイナ.xlsx
+++ b/201908選抜アイナ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\OneDrive-2019-07-31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\OneDrive-2019-08-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7813266-581D-42D7-A3D7-EC42E55011A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D331A7D7-756A-4B52-ACBA-B097203298B4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="11720" windowHeight="2670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="11720" windowHeight="2670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="後衛スキル管理" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="レビュー前" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">デッキ!$A$4:$X$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">デッキ!$B$4:$X$73</definedName>
     <definedName name="デッキスキル数1">デッキ!$K$5:$K$83</definedName>
     <definedName name="デッキスキル数2">デッキ!$N$5:$N$83</definedName>
     <definedName name="デッキスキル数3">デッキ!$Q$5:$Q$83</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="370">
   <si>
     <t>AP</t>
     <phoneticPr fontId="1"/>
@@ -2970,6 +2970,123 @@
   </si>
   <si>
     <t>後藤</t>
+  </si>
+  <si>
+    <t>前田利家</t>
+    <rPh sb="0" eb="2">
+      <t>マエダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トシイエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立花道雪</t>
+    <rPh sb="0" eb="2">
+      <t>タチバナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>津軽為信</t>
+    <rPh sb="0" eb="4">
+      <t>ツガルタメノブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悲恋槍歌</t>
+    <rPh sb="0" eb="2">
+      <t>ヒレン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶対小隊長　11</t>
+    <rPh sb="0" eb="2">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショウタイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下げ</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上げ</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘奥</t>
+    <rPh sb="0" eb="2">
+      <t>ヒオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孟母</t>
+    <rPh sb="0" eb="2">
+      <t>モウボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どっちでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以外</t>
+    <rPh sb="0" eb="2">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継承なし</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井伊直政</t>
+    <rPh sb="0" eb="2">
+      <t>イイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナオマサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武田信繫</t>
+    <rPh sb="0" eb="4">
+      <t>タケダノブシゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャック</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3896,16 +4013,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3913,14 +4030,7 @@
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="109">
     <dxf>
       <fill>
         <patternFill>
@@ -5027,8 +5137,8 @@
   </sheetPr>
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -5221,19 +5331,19 @@
       </c>
       <c r="H3" s="76">
         <f>IF(E3="","",SUMIF(デッキスキル名1,"*"&amp;E3&amp;"*",デッキスキル数1)+SUMIF(デッキスキル名2,"*"&amp;E3&amp;"*",デッキスキル数2)+SUMIF(デッキスキル名3,"*"&amp;E3&amp;"*",デッキスキル数3))</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I3" s="76">
         <f>IF(E3="","",SUMIF(デッキスキル名1,"*"&amp;E3&amp;"*",デッキ小隊長スキル数1)+SUMIF(デッキスキル名2,"*"&amp;E3&amp;"*",デッキ小隊長スキル数2)+SUMIF(デッキスキル名3,"*"&amp;E3&amp;"*",デッキ小隊長スキル数3))</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J3" s="75">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K3" s="75">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L3" s="64" t="s">
         <v>17</v>
@@ -5246,11 +5356,11 @@
       </c>
       <c r="O3" s="99">
         <f>IF(L3="","",SUMIF(デッキスキル名1,"*"&amp;L3&amp;"*",デッキスキル数1)+SUMIF(デッキスキル名2,"*"&amp;L3&amp;"*",デッキスキル数2)+SUMIF(デッキスキル名3,"*"&amp;L3&amp;"*",デッキスキル数3))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" s="100">
         <f>IF(O3&gt;N3,N3,O3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="67" t="s">
         <v>18</v>
@@ -5284,7 +5394,7 @@
       </c>
       <c r="C4" s="89">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="90">
         <f t="shared" si="1"/>
@@ -5301,19 +5411,19 @@
       </c>
       <c r="H4" s="76">
         <f>IF(E4="","",SUMIF(デッキスキル名1,"*"&amp;E4&amp;"*",デッキスキル数1)+SUMIF(デッキスキル名2,"*"&amp;E4&amp;"*",デッキスキル数2)+SUMIF(デッキスキル名3,"*"&amp;E4&amp;"*",デッキスキル数3))</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I4" s="76">
         <f>IF(E4="","",SUMIF(デッキスキル名1,"*"&amp;E4&amp;"*",デッキ小隊長スキル数1)+SUMIF(デッキスキル名2,"*"&amp;E4&amp;"*",デッキ小隊長スキル数2)+SUMIF(デッキスキル名3,"*"&amp;E4&amp;"*",デッキ小隊長スキル数3))</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J4" s="75">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K4" s="75">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L4" s="64" t="s">
         <v>22</v>
@@ -5326,11 +5436,11 @@
       </c>
       <c r="O4" s="99">
         <f>IF(L4="","",SUMIF(デッキスキル名1,"*"&amp;L4&amp;"*",デッキスキル数1)+SUMIF(デッキスキル名2,"*"&amp;L4&amp;"*",デッキスキル数2)+SUMIF(デッキスキル名3,"*"&amp;L4&amp;"*",デッキスキル数3))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P4" s="100">
         <f>IF(O4&gt;N4,N4,O4)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="67" t="s">
         <v>23</v>
@@ -5370,30 +5480,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="127"/>
       <c r="G5" s="77"/>
       <c r="H5" s="74"/>
       <c r="I5" s="74"/>
       <c r="J5" s="78">
         <f>SUM(J2:J4)</f>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K5" s="78">
         <f>SUM(K2:K4)</f>
         <v>83</v>
       </c>
-      <c r="L5" s="126" t="s">
+      <c r="L5" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="126"/>
+      <c r="M5" s="127"/>
       <c r="N5" s="79"/>
       <c r="O5" s="79"/>
       <c r="P5" s="93">
         <f>SUM(P2:P4)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="67" t="s">
         <v>28</v>
@@ -5415,7 +5525,7 @@
       </c>
       <c r="V5" s="74">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -5483,7 +5593,7 @@
       </c>
       <c r="V6" s="74">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -5672,10 +5782,10 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="L9" s="126" t="s">
+      <c r="L9" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="126"/>
+      <c r="M9" s="127"/>
       <c r="N9" s="79"/>
       <c r="O9" s="79"/>
       <c r="P9" s="93">
@@ -5750,15 +5860,15 @@
       </c>
       <c r="R10" s="118">
         <f>IF(Q10&lt;&gt;"",INDEX(補助計算!$N$2:$N$101,MATCH(Q10,補助計算!$A$2:$A$101,0)),"")</f>
-        <v>94.662648027635015</v>
+        <v>96.496028430142388</v>
       </c>
       <c r="S10" s="118" t="str">
         <f>IF(Q10&lt;&gt;"",INDEX(補助計算!$O$2:$O$101,MATCH(Q10,補助計算!$A$2:$A$101,0)),"")</f>
-        <v xml:space="preserve">30x5 </v>
+        <v xml:space="preserve">20x1 30x5 </v>
       </c>
       <c r="T10" s="105">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U10" s="49" t="s">
         <v>49</v>
@@ -5830,11 +5940,11 @@
       </c>
       <c r="R11" s="120">
         <f>IF(Q11&lt;&gt;"",INDEX(補助計算!$N$2:$N$101,MATCH(Q11,補助計算!$A$2:$A$101,0)),"")</f>
-        <v>99.780299217993758</v>
+        <v>99.577342375493743</v>
       </c>
       <c r="S11" s="68" t="str">
         <f>IF(Q11&lt;&gt;"",INDEX(補助計算!$O$2:$O$101,MATCH(Q11,補助計算!$A$2:$A$101,0)),"")</f>
-        <v xml:space="preserve">30x4 </v>
+        <v xml:space="preserve">20x1 30x3 </v>
       </c>
       <c r="T11" s="109">
         <f t="shared" si="4"/>
@@ -5849,13 +5959,13 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="126"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="78">
         <f>SUM(C2:C9)</f>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12" s="93">
         <f>SUM(D2:D9)</f>
@@ -5918,7 +6028,7 @@
       </c>
       <c r="C13" s="94">
         <f>IF(A13="","",SUMIF(デッキスキル名1,"*"&amp;A13&amp;"*",デッキスキル数1)+SUMIF(デッキスキル名2,"*"&amp;A13&amp;"*",デッキスキル数2)+SUMIF(デッキスキル名3,"*"&amp;A13&amp;"*",デッキスキル数3))</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" s="95">
         <f>IF(A13="","",SUMIF(デッキスキル名1,"*"&amp;A13&amp;"*",デッキ小隊長スキル数1)+SUMIF(デッキスキル名2,"*"&amp;A13&amp;"*",デッキ小隊長スキル数2)+SUMIF(デッキスキル名3,"*"&amp;A13&amp;"*",デッキ小隊長スキル数3))</f>
@@ -5993,7 +6103,7 @@
       </c>
       <c r="C14" s="91">
         <f>IF(A14="","",SUMIF(デッキスキル名1,"*"&amp;A14&amp;"*",デッキスキル数1)+SUMIF(デッキスキル名2,"*"&amp;A14&amp;"*",デッキスキル数2)+SUMIF(デッキスキル名3,"*"&amp;A14&amp;"*",デッキスキル数3))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="92">
         <f>IF(A14="","",SUMIF(デッキスキル名1,"*"&amp;A14&amp;"*",デッキ小隊長スキル数1)+SUMIF(デッキスキル名2,"*"&amp;A14&amp;"*",デッキ小隊長スキル数2)+SUMIF(デッキスキル名3,"*"&amp;A14&amp;"*",デッキ小隊長スキル数3))</f>
@@ -6010,7 +6120,7 @@
       </c>
       <c r="H14" s="82">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I14" s="82">
         <f t="shared" si="7"/>
@@ -6018,7 +6128,7 @@
       </c>
       <c r="J14" s="82">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K14" s="82">
         <f t="shared" si="10"/>
@@ -6046,15 +6156,15 @@
       </c>
       <c r="R14" s="120">
         <f>IF(Q14&lt;&gt;"",INDEX(補助計算!$N$2:$N$101,MATCH(Q14,補助計算!$A$2:$A$101,0)),"")</f>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="S14" s="68" t="str">
         <f>IF(Q14&lt;&gt;"",INDEX(補助計算!$O$2:$O$101,MATCH(Q14,補助計算!$A$2:$A$101,0)),"")</f>
-        <v xml:space="preserve">30x1 </v>
+        <v/>
       </c>
       <c r="T14" s="109">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="49" t="s">
         <v>66</v>
@@ -6073,7 +6183,7 @@
       </c>
       <c r="C15" s="91">
         <f>IF(A15="","",SUMIF(デッキスキル名1,"*"&amp;A15&amp;"*",デッキスキル数1)+SUMIF(デッキスキル名2,"*"&amp;A15&amp;"*",デッキスキル数2)+SUMIF(デッキスキル名3,"*"&amp;A15&amp;"*",デッキスキル数3))</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D15" s="92">
         <f>IF(A15="","",SUMIF(デッキスキル名1,"*"&amp;A15&amp;"*",デッキ小隊長スキル数1)+SUMIF(デッキスキル名2,"*"&amp;A15&amp;"*",デッキ小隊長スキル数2)+SUMIF(デッキスキル名3,"*"&amp;A15&amp;"*",デッキ小隊長スキル数3))</f>
@@ -6170,7 +6280,7 @@
       </c>
       <c r="H16" s="82">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I16" s="82">
         <f t="shared" si="7"/>
@@ -6178,7 +6288,7 @@
       </c>
       <c r="J16" s="82">
         <f t="shared" si="11"/>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K16" s="82">
         <f t="shared" si="10"/>
@@ -6233,22 +6343,22 @@
       </c>
       <c r="C17" s="91">
         <f>IF(A17="","",SUMIF(デッキスキル名1,"*"&amp;A17&amp;"*",デッキスキル数1)+SUMIF(デッキスキル名2,"*"&amp;A17&amp;"*",デッキスキル数2)+SUMIF(デッキスキル名3,"*"&amp;A17&amp;"*",デッキスキル数3))</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D17" s="92">
         <f>IF(A17="","",SUMIF(デッキスキル名1,"*"&amp;A17&amp;"*",デッキ小隊長スキル数1)+SUMIF(デッキスキル名2,"*"&amp;A17&amp;"*",デッキ小隊長スキル数2)+SUMIF(デッキスキル名3,"*"&amp;A17&amp;"*",デッキ小隊長スキル数3))</f>
         <v>0</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="126"/>
+      <c r="F17" s="127"/>
       <c r="G17" s="77"/>
       <c r="H17" s="74"/>
       <c r="I17" s="74"/>
       <c r="J17" s="78">
         <f>SUM(J8:J16)</f>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K17" s="78">
         <f>SUM(K8:K16)</f>
@@ -6285,17 +6395,17 @@
       </c>
       <c r="V17" s="74">
         <f>COUNTIF(デッキ補助名1,U17)+COUNTIF(デッキ補助名2,U17)+COUNTIF(デッキ補助名3,U17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="126" t="s">
+      <c r="A18" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="126"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="78">
         <f>SUM(C12:C17)+J5</f>
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D18" s="93">
         <f>SUM(D12:D17)+K5</f>
@@ -6443,7 +6553,7 @@
       </c>
       <c r="H20" s="82">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20" s="82">
         <f t="shared" si="16"/>
@@ -6451,7 +6561,7 @@
       </c>
       <c r="J20" s="82">
         <f t="shared" ref="J20:J26" si="19">IF(H20&gt;G20,G20,H20)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K20" s="82">
         <f t="shared" ref="K20:K26" si="20">IF(I20&gt;G20,G20,I20)</f>
@@ -6479,15 +6589,15 @@
       </c>
       <c r="R20" s="118">
         <f>IF(Q20&lt;&gt;"",INDEX(補助計算!$N$2:$N$101,MATCH(Q20,補助計算!$A$2:$A$101,0)),"")</f>
-        <v>93.703555130534397</v>
+        <v>88.68563365774375</v>
       </c>
       <c r="S20" s="118" t="str">
         <f>IF(Q20&lt;&gt;"",INDEX(補助計算!$O$2:$O$101,MATCH(Q20,補助計算!$A$2:$A$101,0)),"")</f>
-        <v xml:space="preserve">20x1 30x4 </v>
+        <v xml:space="preserve">20x1 30x3 </v>
       </c>
       <c r="T20" s="105">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U20" s="49" t="s">
         <v>91</v>
@@ -6559,11 +6669,11 @@
       </c>
       <c r="R21" s="118">
         <f>IF(Q21&lt;&gt;"",INDEX(補助計算!$N$2:$N$101,MATCH(Q21,補助計算!$A$2:$A$101,0)),"")</f>
-        <v>86.652504036493752</v>
+        <v>88.68563365774375</v>
       </c>
       <c r="S21" s="118" t="str">
         <f>IF(Q21&lt;&gt;"",INDEX(補助計算!$O$2:$O$101,MATCH(Q21,補助計算!$A$2:$A$101,0)),"")</f>
-        <v xml:space="preserve">20x2 30x2 </v>
+        <v xml:space="preserve">20x1 30x3 </v>
       </c>
       <c r="T21" s="105">
         <f t="shared" si="4"/>
@@ -6599,7 +6709,7 @@
       </c>
       <c r="H22" s="83">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I22" s="83">
         <f t="shared" si="16"/>
@@ -6607,7 +6717,7 @@
       </c>
       <c r="J22" s="83">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K22" s="83">
         <f t="shared" si="20"/>
@@ -6660,7 +6770,7 @@
       </c>
       <c r="C23" s="97">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D23" s="98">
         <f t="shared" si="18"/>
@@ -6750,7 +6860,7 @@
       </c>
       <c r="H24" s="85">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="85">
         <f t="shared" si="16"/>
@@ -6758,7 +6868,7 @@
       </c>
       <c r="J24" s="85">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="85">
         <f t="shared" si="20"/>
@@ -6799,11 +6909,11 @@
       <c r="U24" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="V24" s="127">
+      <c r="V24" s="125">
         <f>SUM(SUMPRODUCT(B2:B57,C2:C57),SUMPRODUCT(F2:F47,J2:J47),SUMPRODUCT(M2:M25,P2:P25))</f>
-        <v>12180</v>
-      </c>
-      <c r="W24" s="127"/>
+        <v>12325</v>
+      </c>
+      <c r="W24" s="125"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="55" t="s">
@@ -6831,7 +6941,7 @@
       </c>
       <c r="H25" s="85">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" s="85">
         <f t="shared" si="16"/>
@@ -6839,7 +6949,7 @@
       </c>
       <c r="J25" s="85">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K25" s="85">
         <f t="shared" si="20"/>
@@ -6863,11 +6973,11 @@
       <c r="U25" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="V25" s="128">
+      <c r="V25" s="126">
         <f>SUM(SUM(C2:C57),SUM(J2:J47),SUM(P2:P25))-C12-C18-J5-J17-J27-P5-P9</f>
-        <v>496</v>
-      </c>
-      <c r="W25" s="128"/>
+        <v>492</v>
+      </c>
+      <c r="W25" s="126"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="49"/>
@@ -6921,11 +7031,11 @@
       <c r="U26" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="V26" s="128">
+      <c r="V26" s="126">
         <f>SUM(SUM(D2:D57),SUM(K2:K47))-D12-D18-K5-K17-K27</f>
         <v>204</v>
       </c>
-      <c r="W26" s="128"/>
+      <c r="W26" s="126"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="51" t="s">
@@ -6942,16 +7052,16 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E27" s="126" t="s">
+      <c r="E27" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="126"/>
+      <c r="F27" s="127"/>
       <c r="G27" s="77"/>
       <c r="H27" s="74"/>
       <c r="I27" s="74"/>
       <c r="J27" s="78">
         <f>SUM(J20:J26)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K27" s="78">
         <f>SUM(K20:K26)</f>
@@ -6970,7 +7080,7 @@
       </c>
       <c r="T27" s="106">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -7248,7 +7358,7 @@
         <v>131</v>
       </c>
       <c r="V32" s="74">
-        <f>COUNTIF(デッキ!$S$4:$S$72,U32)+COUNTIF(デッキ!$U$4:$U$72,U32)+COUNTIF(デッキ!$W$4:$W100,U32)</f>
+        <f>COUNTIF(デッキ!$S$4:$S$72,U32)+COUNTIF(デッキ!$U$4:$U$72,U32)+COUNTIF(デッキ!$W$4:$W97,U32)</f>
         <v>1</v>
       </c>
     </row>
@@ -7308,7 +7418,7 @@
         <v>134</v>
       </c>
       <c r="V33" s="74">
-        <f>COUNTIF(デッキ!$S$4:$S$72,U33)+COUNTIF(デッキ!$U$4:$U$72,U33)+COUNTIF(デッキ!$W$4:$W105,U33)</f>
+        <f>COUNTIF(デッキ!$S$4:$S$72,U33)+COUNTIF(デッキ!$U$4:$U$72,U33)+COUNTIF(デッキ!$W$4:$W101,U33)</f>
         <v>1</v>
       </c>
     </row>
@@ -7356,7 +7466,7 @@
         <v>136</v>
       </c>
       <c r="V34" s="74">
-        <f>COUNTIF(デッキ!$S$4:$S$72,U34)+COUNTIF(デッキ!$U$4:$U$72,U34)+COUNTIF(デッキ!$W$4:$W114,U34)</f>
+        <f>COUNTIF(デッキ!$S$4:$S$72,U34)+COUNTIF(デッキ!$U$4:$U$72,U34)+COUNTIF(デッキ!$W$4:$W109,U34)</f>
         <v>0</v>
       </c>
     </row>
@@ -7415,7 +7525,7 @@
         <v>139</v>
       </c>
       <c r="V35" s="74">
-        <f>COUNTIF(デッキ!$S$4:$S$72,U35)+COUNTIF(デッキ!$U$4:$U$72,U35)+COUNTIF(デッキ!$W$4:$W122,U35)</f>
+        <f>COUNTIF(デッキ!$S$4:$S$72,U35)+COUNTIF(デッキ!$U$4:$U$72,U35)+COUNTIF(デッキ!$W$4:$W119,U35)</f>
         <v>0</v>
       </c>
     </row>
@@ -7472,7 +7582,7 @@
         <v>142</v>
       </c>
       <c r="V36" s="74">
-        <f>COUNTIF(デッキ!$S$4:$S$72,U36)+COUNTIF(デッキ!$U$4:$U$72,U36)+COUNTIF(デッキ!$W$4:$W123,U36)</f>
+        <f>COUNTIF(デッキ!$S$4:$S$72,U36)+COUNTIF(デッキ!$U$4:$U$72,U36)+COUNTIF(デッキ!$W$4:$W120,U36)</f>
         <v>1</v>
       </c>
     </row>
@@ -7535,7 +7645,7 @@
         <v>146</v>
       </c>
       <c r="V37" s="74">
-        <f>COUNTIF(デッキ!$S$4:$S$72,U37)+COUNTIF(デッキ!$U$4:$U$72,U37)+COUNTIF(デッキ!$W$4:$W98,U37)</f>
+        <f>COUNTIF(デッキ!$S$4:$S$72,U37)+COUNTIF(デッキ!$U$4:$U$72,U37)+COUNTIF(デッキ!$W$4:$W95,U37)</f>
         <v>0</v>
       </c>
     </row>
@@ -7587,7 +7697,7 @@
         <v>149</v>
       </c>
       <c r="V38" s="74">
-        <f>COUNTIF(デッキ!$S$4:$S$72,U38)+COUNTIF(デッキ!$U$4:$U$72,U38)+COUNTIF(デッキ!$W$4:$W99,U38)</f>
+        <f>COUNTIF(デッキ!$S$4:$S$72,U38)+COUNTIF(デッキ!$U$4:$U$72,U38)+COUNTIF(デッキ!$W$4:$W96,U38)</f>
         <v>0</v>
       </c>
     </row>
@@ -7631,7 +7741,7 @@
         <v>150</v>
       </c>
       <c r="V39" s="74">
-        <f>COUNTIF(デッキ!$S$4:$S$72,U39)+COUNTIF(デッキ!$U$4:$U$72,U39)+COUNTIF(デッキ!$W$4:$W124,U39)</f>
+        <f>COUNTIF(デッキ!$S$4:$S$72,U39)+COUNTIF(デッキ!$U$4:$U$72,U39)+COUNTIF(デッキ!$W$4:$W121,U39)</f>
         <v>0</v>
       </c>
     </row>
@@ -7683,7 +7793,7 @@
         <v>153</v>
       </c>
       <c r="V40" s="74">
-        <f>COUNTIF(デッキ!$S$4:$S$72,U40)+COUNTIF(デッキ!$U$4:$U$72,U40)+COUNTIF(デッキ!$W$4:$W125,U40)</f>
+        <f>COUNTIF(デッキ!$S$4:$S$72,U40)+COUNTIF(デッキ!$U$4:$U$72,U40)+COUNTIF(デッキ!$W$4:$W122,U40)</f>
         <v>0</v>
       </c>
     </row>
@@ -7842,7 +7952,7 @@
       </c>
       <c r="H44" s="74">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" s="74">
         <f t="shared" si="22"/>
@@ -7850,7 +7960,7 @@
       </c>
       <c r="J44" s="74">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" s="74">
         <f t="shared" si="31"/>
@@ -8166,40 +8276,40 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="V24:W24"/>
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J13:J14 J18 J20:J26">
-    <cfRule type="expression" dxfId="109" priority="6">
+    <cfRule type="expression" dxfId="108" priority="6">
       <formula>$H13&gt;$G13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="expression" dxfId="108" priority="13">
+    <cfRule type="expression" dxfId="107" priority="13">
       <formula>$H31&gt;$G31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="expression" dxfId="107" priority="16">
+    <cfRule type="expression" dxfId="106" priority="16">
       <formula>$H29&gt;$G29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="106" priority="2">
+    <cfRule type="expression" dxfId="105" priority="2">
       <formula>$H15&gt;$G15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="105" priority="1">
+    <cfRule type="expression" dxfId="104" priority="1">
       <formula>$H16&gt;$G16</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8214,13 +8324,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:X123"/>
+  <dimension ref="A1:X120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -8305,7 +8415,7 @@
     <row r="3" spans="2:24" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="35">
         <f>SUM(F42:I42,F72:I72)</f>
-        <v>8963374</v>
+        <v>8953445</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -8501,19 +8611,19 @@
         <v>3</v>
       </c>
       <c r="L6" s="9" t="str">
-        <f t="shared" ref="L6:L35" si="0">IF($G6&gt;0,IF(K6="","",K6),"")</f>
+        <f t="shared" ref="L6:L41" si="0">IF($G6&gt;0,IF(K6="","",K6),"")</f>
         <v/>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="13"/>
       <c r="O6" s="9" t="str">
-        <f t="shared" ref="O6:O35" si="1">IF($G6&gt;0,IF(N6="","",N6),"")</f>
+        <f t="shared" ref="O6:O41" si="1">IF($G6&gt;0,IF(N6="","",N6),"")</f>
         <v/>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="9" t="str">
-        <f t="shared" ref="R6:R35" si="2">IF($G6&gt;0,IF(Q6="","",Q6),"")</f>
+        <f t="shared" ref="R6:R41" si="2">IF($G6&gt;0,IF(Q6="","",Q6),"")</f>
         <v/>
       </c>
       <c r="S6" s="14" t="s">
@@ -8625,19 +8735,19 @@
         <v>4</v>
       </c>
       <c r="L8" s="9" t="str">
-        <f>IF($G8&gt;0,IF(K8="","",K8),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="13"/>
       <c r="O8" s="9" t="str">
-        <f>IF($G8&gt;0,IF(N8="","",N8),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="9" t="str">
-        <f>IF($G8&gt;0,IF(Q8="","",Q8),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S8" s="12" t="s">
@@ -8687,10 +8797,10 @@
         <v/>
       </c>
       <c r="M9" s="44" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="N9" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" s="9" t="str">
         <f t="shared" si="1"/>
@@ -8815,7 +8925,7 @@
         <v/>
       </c>
       <c r="M11" s="44" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="N11" s="13">
         <v>3</v>
@@ -8877,7 +8987,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="9">
-        <f>IF($G12&gt;0,IF(K12="","",K12),"")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M12" s="44" t="s">
@@ -8887,13 +8997,13 @@
         <v>3</v>
       </c>
       <c r="O12" s="9">
-        <f>IF($G12&gt;0,IF(N12="","",N12),"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P12" s="12"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="9" t="str">
-        <f>IF($G12&gt;0,IF(Q12="","",Q12),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S12" s="14" t="s">
@@ -8949,11 +9059,11 @@
         <v>5</v>
       </c>
       <c r="O13" s="9">
-        <f>IF($G13&gt;0,IF(N13="","",N13),"")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P13" s="44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="13">
         <v>3</v>
@@ -9021,11 +9131,11 @@
         <v>5</v>
       </c>
       <c r="O14" s="9">
-        <f>IF($G14&gt;0,IF(N14="","",N14),"")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P14" s="44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="13">
         <v>3</v>
@@ -9077,7 +9187,7 @@
         <v>5</v>
       </c>
       <c r="L15" s="9" t="str">
-        <f>IF($G15&gt;0,IF(K15="","",K15),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M15" s="12" t="s">
@@ -9087,7 +9197,7 @@
         <v>5</v>
       </c>
       <c r="O15" s="9" t="str">
-        <f>IF($G15&gt;0,IF(N15="","",N15),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P15" s="12" t="s">
@@ -9097,7 +9207,7 @@
         <v>3</v>
       </c>
       <c r="R15" s="9" t="str">
-        <f>IF($G15&gt;0,IF(Q15="","",Q15),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S15" s="14" t="s">
@@ -9271,7 +9381,7 @@
         <v>5</v>
       </c>
       <c r="L18" s="9" t="str">
-        <f>IF($G18&gt;0,IF(K18="","",K18),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M18" s="12" t="s">
@@ -9281,13 +9391,13 @@
         <v>3</v>
       </c>
       <c r="O18" s="9" t="str">
-        <f>IF($G18&gt;0,IF(N18="","",N18),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="9" t="str">
-        <f>IF($G18&gt;0,IF(Q18="","",Q18),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S18" s="14" t="s">
@@ -9433,7 +9543,7 @@
         <v>4</v>
       </c>
       <c r="R20" s="9">
-        <f>IF($G20&gt;0,IF(Q20="","",Q20),"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S20" s="14" t="s">
@@ -9555,13 +9665,13 @@
         <v>3</v>
       </c>
       <c r="O22" s="9" t="str">
-        <f>IF($G22&gt;0,IF(N22="","",N22),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="9" t="str">
-        <f>IF($G22&gt;0,IF(Q22="","",Q22),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S22" s="20" t="s">
@@ -9647,7 +9757,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C24" s="23">
         <v>180</v>
@@ -9659,47 +9769,51 @@
         <v>8</v>
       </c>
       <c r="F24" s="37">
-        <v>62874</v>
+        <v>66123</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37">
-        <v>64561</v>
+        <v>58551</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="12" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="K24" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L24" s="9" t="str">
-        <f>IF($G24&gt;0,IF(K24="","",K24),"")</f>
-        <v/>
-      </c>
-      <c r="M24" s="44" t="s">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="N24" s="13">
+        <v>3</v>
+      </c>
+      <c r="O24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P24" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="N24" s="13">
-        <v>3</v>
-      </c>
-      <c r="O24" s="9" t="str">
-        <f>IF($G24&gt;0,IF(N24="","",N24),"")</f>
-        <v/>
-      </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
+      <c r="Q24" s="13">
+        <v>3</v>
+      </c>
       <c r="R24" s="9" t="str">
-        <f>IF($G24&gt;0,IF(Q24="","",Q24),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S24" s="14" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="T24" s="14">
         <v>20</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="V24" s="14">
         <v>20</v>
@@ -9709,7 +9823,7 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11" t="s">
-        <v>221</v>
+        <v>325</v>
       </c>
       <c r="C25" s="23">
         <v>180</v>
@@ -9723,51 +9837,51 @@
       <c r="F25" s="37">
         <v>66123</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="37">
+        <v>9522</v>
+      </c>
       <c r="H25" s="37">
         <v>58551</v>
       </c>
-      <c r="I25" s="37"/>
+      <c r="I25" s="37">
+        <v>8432</v>
+      </c>
       <c r="J25" s="12" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="K25" s="13">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="N25" s="13">
         <v>3</v>
       </c>
-      <c r="P25" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>3</v>
-      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="13"/>
       <c r="R25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S25" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="T25" s="14">
-        <v>20</v>
-      </c>
-      <c r="U25" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="V25" s="14">
-        <v>20</v>
-      </c>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="C26" s="23">
         <v>180</v>
@@ -9779,107 +9893,111 @@
         <v>8</v>
       </c>
       <c r="F26" s="37">
-        <v>66123</v>
-      </c>
-      <c r="G26" s="37">
-        <v>9522</v>
-      </c>
+        <v>64317</v>
+      </c>
+      <c r="G26" s="37"/>
       <c r="H26" s="37">
-        <v>58551</v>
-      </c>
-      <c r="I26" s="37">
-        <v>8432</v>
-      </c>
+        <v>59331</v>
+      </c>
+      <c r="I26" s="37"/>
       <c r="J26" s="12" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="K26" s="13">
-        <v>3</v>
-      </c>
-      <c r="L26" s="9">
+        <v>4</v>
+      </c>
+      <c r="L26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N26" s="13">
-        <v>3</v>
-      </c>
-      <c r="O26" s="9">
-        <f>IF($G26&gt;0,IF(N26="","",N26),"")</f>
-        <v>3</v>
+        <v/>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="9" t="str">
-        <f>IF($G26&gt;0,IF(Q26="","",Q26),"")</f>
-        <v/>
-      </c>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T26" s="14">
+        <v>30</v>
+      </c>
+      <c r="U26" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="V26" s="14">
+        <v>20</v>
+      </c>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="23">
-        <v>180</v>
-      </c>
-      <c r="D27" s="23">
+      <c r="B27" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="24">
+        <v>155</v>
+      </c>
+      <c r="D27" s="24">
         <v>5</v>
       </c>
       <c r="E27" s="41">
-        <v>8</v>
-      </c>
-      <c r="F27" s="37">
-        <v>64317</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37">
-        <v>59331</v>
-      </c>
-      <c r="I27" s="37"/>
+        <v>3</v>
+      </c>
+      <c r="F27" s="38">
+        <v>68563</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38">
+        <v>54736</v>
+      </c>
+      <c r="I27" s="38"/>
       <c r="J27" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27" s="13">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="K27" s="18">
+        <v>3</v>
       </c>
       <c r="L27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M27" s="12"/>
-      <c r="N27" s="13"/>
+      <c r="M27" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="18">
+        <v>3</v>
+      </c>
       <c r="O27" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="13"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="18"/>
       <c r="R27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S27" s="14" t="s">
-        <v>131</v>
+      <c r="S27" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="T27" s="14">
         <v>30</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="V27" s="14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
+      <c r="X27" s="20"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="16" t="s">
@@ -9913,7 +10031,7 @@
         <v>4</v>
       </c>
       <c r="L28" s="9">
-        <f>IF($G28&gt;0,IF(K28="","",K28),"")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M28" s="70" t="s">
@@ -9923,13 +10041,13 @@
         <v>2</v>
       </c>
       <c r="O28" s="9">
-        <f>IF($G28&gt;0,IF(N28="","",N28),"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P28" s="17"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="9" t="str">
-        <f>IF($G28&gt;0,IF(Q28="","",Q28),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S28" s="20" t="s">
@@ -10015,7 +10133,7 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="C30" s="23">
         <v>180</v>
@@ -10027,28 +10145,28 @@
         <v>8</v>
       </c>
       <c r="F30" s="37">
-        <v>59561</v>
+        <v>62462</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37">
-        <v>57874</v>
+        <v>55266</v>
       </c>
       <c r="I30" s="37"/>
       <c r="J30" s="12" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="K30" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M30" s="44" t="s">
-        <v>118</v>
+      <c r="M30" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="N30" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" s="9" t="str">
         <f t="shared" si="1"/>
@@ -10061,27 +10179,19 @@
         <v/>
       </c>
       <c r="S30" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="T30" s="14">
-        <v>20</v>
-      </c>
-      <c r="U30" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="V30" s="14">
-        <v>20</v>
-      </c>
-      <c r="W30" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="X30" s="14">
-        <v>20</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="T30" s="14"/>
+      <c r="U30" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="V30" s="46"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C31" s="23">
         <v>180</v>
@@ -10093,15 +10203,15 @@
         <v>8</v>
       </c>
       <c r="F31" s="37">
-        <v>61388</v>
+        <v>59561</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37">
-        <v>53840</v>
+        <v>57874</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K31" s="13">
         <v>5</v>
@@ -10110,8 +10220,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>63</v>
+      <c r="M31" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="N31" s="13">
         <v>3</v>
@@ -10138,160 +10248,164 @@
       <c r="V31" s="14">
         <v>20</v>
       </c>
-      <c r="W31" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="X31" s="46">
+      <c r="W31" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X31" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C32" s="24">
-        <v>160</v>
-      </c>
-      <c r="D32" s="24">
+      <c r="B32" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="23">
+        <v>180</v>
+      </c>
+      <c r="D32" s="23">
         <v>5</v>
       </c>
       <c r="E32" s="41">
-        <v>4</v>
-      </c>
-      <c r="F32" s="38">
-        <v>63386</v>
-      </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38">
-        <v>51205</v>
-      </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="18">
+        <v>8</v>
+      </c>
+      <c r="F32" s="37">
+        <v>61388</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37">
+        <v>53840</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="13">
         <v>5</v>
       </c>
       <c r="L32" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M32" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="N32" s="18">
+      <c r="M32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" s="13">
         <v>3</v>
       </c>
       <c r="O32" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="18"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="13"/>
       <c r="R32" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S32" s="20" t="s">
-        <v>53</v>
+      <c r="S32" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="T32" s="14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="V32" s="14">
-        <v>30</v>
-      </c>
-      <c r="W32" s="14"/>
-      <c r="X32" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="W32" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="X32" s="46">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C33" s="24">
-        <v>150</v>
-      </c>
-      <c r="D33" s="24">
+        <v>233</v>
+      </c>
+      <c r="C33" s="23">
+        <v>160</v>
+      </c>
+      <c r="D33" s="23">
         <v>5</v>
       </c>
       <c r="E33" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" s="38">
-        <v>59923</v>
+        <v>57314</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38">
-        <v>47578</v>
+        <v>53877</v>
       </c>
       <c r="I33" s="38"/>
       <c r="J33" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="K33" s="13">
+        <v>5</v>
+      </c>
+      <c r="L33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M33" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="18">
-        <v>2</v>
-      </c>
-      <c r="L33" s="9" t="str">
-        <f>IF($G33&gt;0,IF(K33="","",K33),"")</f>
-        <v/>
-      </c>
-      <c r="M33" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="N33" s="18">
+      <c r="N33" s="13">
         <v>3</v>
       </c>
       <c r="O33" s="9" t="str">
-        <f>IF($G33&gt;0,IF(N33="","",N33),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="18"/>
       <c r="R33" s="9" t="str">
-        <f>IF($G33&gt;0,IF(Q33="","",Q33),"")</f>
-        <v/>
-      </c>
-      <c r="S33" s="20" t="s">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S33" s="14" t="s">
         <v>61</v>
       </c>
       <c r="T33" s="14">
         <v>30</v>
       </c>
-      <c r="U33" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="V33" s="14">
-        <v>30</v>
+      <c r="U33" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="V33" s="46">
+        <v>20</v>
       </c>
       <c r="W33" s="14"/>
       <c r="X33" s="20"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="16" t="s">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="C34" s="23">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D34" s="23">
         <v>5</v>
       </c>
       <c r="E34" s="41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" s="38">
-        <v>56064</v>
+        <v>58437</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38">
-        <v>50807</v>
+        <v>51902</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="12" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="K34" s="13">
         <v>5</v>
@@ -10310,24 +10424,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="18"/>
+      <c r="P34" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>3</v>
+      </c>
       <c r="R34" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S34" s="14" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="T34" s="14">
-        <v>30</v>
-      </c>
-      <c r="U34" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="V34" s="46">
         <v>20</v>
       </c>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
       <c r="W34" s="14"/>
       <c r="X34" s="20"/>
     </row>
@@ -10427,19 +10541,19 @@
         <v>5</v>
       </c>
       <c r="L36" s="9" t="str">
-        <f>IF($G36&gt;0,IF(K36="","",K36),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M36" s="12"/>
       <c r="N36" s="13"/>
       <c r="O36" s="9" t="str">
-        <f>IF($G36&gt;0,IF(N36="","",N36),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="9" t="str">
-        <f>IF($G36&gt;0,IF(Q36="","",Q36),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S36" s="20" t="s">
@@ -10489,7 +10603,7 @@
         <v>5</v>
       </c>
       <c r="L37" s="9" t="str">
-        <f>IF($G37&gt;0,IF(K37="","",K37),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M37" s="12" t="s">
@@ -10499,13 +10613,13 @@
         <v>3</v>
       </c>
       <c r="O37" s="9" t="str">
-        <f>IF($G37&gt;0,IF(N37="","",N37),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="9" t="str">
-        <f>IF($G37&gt;0,IF(Q37="","",Q37),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S37" s="14" t="s">
@@ -10551,7 +10665,7 @@
         <v>4</v>
       </c>
       <c r="L38" s="9" t="str">
-        <f>IF($G38&gt;0,IF(K38="","",K38),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M38" s="44" t="s">
@@ -10561,13 +10675,13 @@
         <v>3</v>
       </c>
       <c r="O38" s="9" t="str">
-        <f>IF($G38&gt;0,IF(N38="","",N38),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="9" t="str">
-        <f>IF($G38&gt;0,IF(Q38="","",Q38),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S38" s="20" t="s">
@@ -10613,19 +10727,19 @@
         <v>3</v>
       </c>
       <c r="L39" s="9" t="str">
-        <f>IF($G39&gt;0,IF(K39="","",K39),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M39" s="12"/>
       <c r="N39" s="13"/>
       <c r="O39" s="9" t="str">
-        <f>IF($G39&gt;0,IF(N39="","",N39),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="9" t="str">
-        <f>IF($G39&gt;0,IF(Q39="","",Q39),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S39" s="14" t="s">
@@ -10675,19 +10789,19 @@
         <v>4</v>
       </c>
       <c r="L40" s="9" t="str">
-        <f t="shared" ref="L40" si="3">IF($G40&gt;0,IF(K40="","",K40),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M40" s="12"/>
       <c r="N40" s="13"/>
       <c r="O40" s="9" t="str">
-        <f t="shared" ref="O40" si="4">IF($G40&gt;0,IF(N40="","",N40),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P40" s="12"/>
       <c r="Q40" s="13"/>
       <c r="R40" s="9" t="str">
-        <f t="shared" ref="R40" si="5">IF($G40&gt;0,IF(Q40="","",Q40),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S40" s="20" t="s">
@@ -10737,7 +10851,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="9" t="str">
-        <f>IF($G41&gt;0,IF(K41="","",K41),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M41" s="44" t="s">
@@ -10747,13 +10861,13 @@
         <v>1</v>
       </c>
       <c r="O41" s="9" t="str">
-        <f>IF($G41&gt;0,IF(N41="","",N41),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="13"/>
       <c r="R41" s="9" t="str">
-        <f>IF($G41&gt;0,IF(Q41="","",Q41),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S41" s="14" t="s">
@@ -10778,7 +10892,7 @@
       <c r="E42" s="26"/>
       <c r="F42" s="48">
         <f>SUM(F5:F41)</f>
-        <v>2500078</v>
+        <v>2504607</v>
       </c>
       <c r="G42" s="48">
         <f>SUM(G5:G41)</f>
@@ -10786,7 +10900,7 @@
       </c>
       <c r="H42" s="48">
         <f>SUM(H5:H41)</f>
-        <v>2290135</v>
+        <v>2291765</v>
       </c>
       <c r="I42" s="48">
         <f>SUM(I5:I41)</f>
@@ -10865,7 +10979,7 @@
         <v>5</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" ref="L44:L71" si="6">IF($G44&gt;0,IF(K44="","",K44),"")</f>
+        <f t="shared" ref="L44:L71" si="3">IF($G44&gt;0,IF(K44="","",K44),"")</f>
         <v>5</v>
       </c>
       <c r="M44" s="12" t="s">
@@ -10875,7 +10989,7 @@
         <v>5</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" ref="O44:O71" si="7">IF($G44&gt;0,IF(N44="","",N44),"")</f>
+        <f t="shared" ref="O44:O71" si="4">IF($G44&gt;0,IF(N44="","",N44),"")</f>
         <v>5</v>
       </c>
       <c r="P44" s="44" t="s">
@@ -10885,7 +10999,7 @@
         <v>3</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" ref="R44:R71" si="8">IF($G44&gt;0,IF(Q44="","",Q44),"")</f>
+        <f t="shared" ref="R44:R71" si="5">IF($G44&gt;0,IF(Q44="","",Q44),"")</f>
         <v>3</v>
       </c>
       <c r="S44" s="14" t="s">
@@ -10939,7 +11053,7 @@
         <v>4</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M45" s="44" t="s">
@@ -10949,13 +11063,13 @@
         <v>3</v>
       </c>
       <c r="O45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P45" s="17"/>
       <c r="Q45" s="18"/>
       <c r="R45" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S45" s="14" t="s">
@@ -11009,7 +11123,7 @@
         <v>4</v>
       </c>
       <c r="L46" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M46" s="12" t="s">
@@ -11019,13 +11133,13 @@
         <v>2</v>
       </c>
       <c r="O46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P46" s="12"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S46" s="14" t="s">
@@ -11071,7 +11185,7 @@
         <v>5</v>
       </c>
       <c r="L47" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M47" s="7" t="s">
@@ -11081,7 +11195,7 @@
         <v>5</v>
       </c>
       <c r="O47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P47" s="43" t="s">
@@ -11091,7 +11205,7 @@
         <v>3</v>
       </c>
       <c r="R47" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="S47" s="14" t="s">
@@ -11137,7 +11251,7 @@
         <v>5</v>
       </c>
       <c r="L48" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M48" s="44" t="s">
@@ -11147,12 +11261,12 @@
         <v>3</v>
       </c>
       <c r="O48" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q48" s="13"/>
       <c r="R48" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S48" s="14" t="s">
@@ -11206,17 +11320,17 @@
         <v>5</v>
       </c>
       <c r="L49" s="9">
-        <f>IF($G49&gt;0,IF(K49="","",K49),"")</f>
-        <v>5</v>
-      </c>
-      <c r="M49" s="44" t="s">
-        <v>192</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M49" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="N49" s="13">
         <v>3</v>
       </c>
       <c r="O49" s="9">
-        <f>IF($G49&gt;0,IF(N49="","",N49),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P49" s="12" t="s">
@@ -11226,7 +11340,7 @@
         <v>5</v>
       </c>
       <c r="R49" s="9">
-        <f>IF($G49&gt;0,IF(Q49="","",Q49),"")</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="S49" s="14" t="s">
@@ -11276,7 +11390,7 @@
         <v>5</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M50" s="44" t="s">
@@ -11286,13 +11400,13 @@
         <v>3</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S50" s="14" t="s">
@@ -11342,7 +11456,7 @@
         <v>5</v>
       </c>
       <c r="L51" s="9">
-        <f t="shared" ref="L51:L57" si="9">IF($G51&gt;0,IF(K51="","",K51),"")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M51" s="44" t="s">
@@ -11352,13 +11466,13 @@
         <v>3</v>
       </c>
       <c r="O51" s="9">
-        <f t="shared" ref="O51:O70" si="10">IF($G51&gt;0,IF(N51="","",N51),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="18"/>
       <c r="R51" s="9" t="str">
-        <f t="shared" ref="R51:R57" si="11">IF($G51&gt;0,IF(Q51="","",Q51),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S51" s="14" t="s">
@@ -11408,7 +11522,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M52" s="44" t="s">
@@ -11418,13 +11532,13 @@
         <v>3</v>
       </c>
       <c r="O52" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="13"/>
       <c r="R52" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S52" s="14" t="s">
@@ -11466,19 +11580,19 @@
         <v>4</v>
       </c>
       <c r="L53" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="13"/>
       <c r="O53" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="13"/>
       <c r="R53" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S53" s="14" t="s">
@@ -11498,10 +11612,10 @@
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C54" s="23">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D54" s="23">
         <v>5</v>
@@ -11510,60 +11624,61 @@
         <v>8</v>
       </c>
       <c r="F54" s="37">
-        <v>71733</v>
-      </c>
-      <c r="G54" s="37"/>
+        <v>64855</v>
+      </c>
+      <c r="G54" s="37">
+        <v>8464</v>
+      </c>
       <c r="H54" s="37">
-        <v>62351</v>
-      </c>
-      <c r="I54" s="37"/>
-      <c r="J54" s="12" t="s">
-        <v>77</v>
+        <v>69229</v>
+      </c>
+      <c r="I54" s="38">
+        <v>9035</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="K54" s="13">
-        <v>5</v>
-      </c>
-      <c r="L54" s="9" t="str">
-        <f>IF($G54&gt;0,IF(K54="","",K54),"")</f>
-        <v/>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>62</v>
+        <v>6</v>
+      </c>
+      <c r="L54" s="9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M54" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="N54" s="13">
         <v>3</v>
       </c>
-      <c r="O54" s="9" t="str">
-        <f>IF($G54&gt;0,IF(N54="","",N54),"")</f>
-        <v/>
-      </c>
+      <c r="O54" s="9">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P54" s="12"/>
       <c r="Q54" s="13"/>
       <c r="R54" s="9" t="str">
-        <f>IF($G54&gt;0,IF(Q54="","",Q54),"")</f>
-        <v/>
-      </c>
-      <c r="S54" s="12" t="s">
-        <v>65</v>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S54" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="T54" s="14">
         <v>30</v>
       </c>
       <c r="U54" s="14" t="s">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="V54" s="14">
         <v>30</v>
       </c>
-      <c r="W54" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="X54" s="46">
-        <v>20</v>
-      </c>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C55" s="23">
         <v>180</v>
@@ -11575,61 +11690,61 @@
         <v>8</v>
       </c>
       <c r="F55" s="37">
-        <v>64855</v>
-      </c>
-      <c r="G55" s="37">
-        <v>8464</v>
-      </c>
+        <v>66927</v>
+      </c>
+      <c r="G55" s="37"/>
       <c r="H55" s="37">
-        <v>69229</v>
-      </c>
-      <c r="I55" s="38">
-        <v>9035</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>15</v>
+        <v>64427</v>
+      </c>
+      <c r="I55" s="37"/>
+      <c r="J55" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="K55" s="13">
-        <v>6</v>
-      </c>
-      <c r="L55" s="9">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="M55" s="44" t="s">
-        <v>192</v>
+        <v>5</v>
+      </c>
+      <c r="L55" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="N55" s="13">
-        <v>3</v>
-      </c>
-      <c r="O55" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="O55" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P55" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>3</v>
+      </c>
       <c r="R55" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S55" s="14" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="T55" s="14">
-        <v>30</v>
-      </c>
-      <c r="U55" s="14" t="s">
-        <v>103</v>
+        <v>20</v>
+      </c>
+      <c r="U55" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="V55" s="14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
+      <c r="X55" s="20"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C56" s="23">
         <v>180</v>
@@ -11641,61 +11756,61 @@
         <v>8</v>
       </c>
       <c r="F56" s="37">
-        <v>66927</v>
+        <v>62242</v>
       </c>
       <c r="G56" s="37"/>
       <c r="H56" s="37">
-        <v>64427</v>
+        <v>69103</v>
       </c>
       <c r="I56" s="37"/>
       <c r="J56" s="12" t="s">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="K56" s="13">
         <v>5</v>
       </c>
       <c r="L56" s="9" t="str">
-        <f>IF($G56&gt;0,IF(K56="","",K56),"")</f>
-        <v/>
-      </c>
-      <c r="M56" s="12" t="s">
-        <v>265</v>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M56" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="N56" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O56" s="9" t="str">
-        <f>IF($G56&gt;0,IF(N56="","",N56),"")</f>
-        <v/>
-      </c>
-      <c r="P56" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q56" s="13">
-        <v>3</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="13"/>
       <c r="R56" s="9" t="str">
-        <f>IF($G56&gt;0,IF(Q56="","",Q56),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S56" s="14" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="T56" s="14">
-        <v>20</v>
-      </c>
-      <c r="U56" s="20" t="s">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="U56" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="V56" s="14">
-        <v>20</v>
-      </c>
-      <c r="W56" s="14"/>
-      <c r="X56" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="W56" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="X56" s="14">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="11" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C57" s="23">
         <v>180</v>
@@ -11707,61 +11822,61 @@
         <v>8</v>
       </c>
       <c r="F57" s="37">
-        <v>62242</v>
+        <v>69599</v>
       </c>
       <c r="G57" s="37"/>
       <c r="H57" s="37">
-        <v>69103</v>
+        <v>60345</v>
       </c>
       <c r="I57" s="37"/>
       <c r="J57" s="12" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="K57" s="13">
         <v>5</v>
       </c>
       <c r="L57" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M57" s="44" t="s">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="N57" s="13">
+        <v>3</v>
+      </c>
+      <c r="O57" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P57" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="N57" s="13">
-        <v>3</v>
-      </c>
-      <c r="O57" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="13"/>
+      <c r="Q57" s="13">
+        <v>3</v>
+      </c>
       <c r="R57" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S57" s="14" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="T57" s="14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U57" s="14" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="V57" s="14">
-        <v>30</v>
-      </c>
-      <c r="W57" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="X57" s="14">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="11" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="C58" s="23">
         <v>180</v>
@@ -11773,23 +11888,21 @@
         <v>8</v>
       </c>
       <c r="F58" s="37">
-        <f>65886</f>
-        <v>65886</v>
+        <v>62862</v>
       </c>
       <c r="G58" s="37"/>
       <c r="H58" s="37">
-        <f>60272</f>
-        <v>60272</v>
+        <v>65983</v>
       </c>
       <c r="I58" s="37"/>
       <c r="J58" s="12" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K58" s="13">
         <v>5</v>
       </c>
       <c r="L58" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M58" s="44" t="s">
@@ -11799,29 +11912,33 @@
         <v>3</v>
       </c>
       <c r="O58" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="13"/>
       <c r="R58" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S58" s="14" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="T58" s="14">
         <v>20</v>
       </c>
-      <c r="U58" s="14" t="s">
-        <v>95</v>
+      <c r="U58" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="V58" s="14">
         <v>20</v>
       </c>
-      <c r="W58" s="14"/>
-      <c r="X58" s="14"/>
+      <c r="W58" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="X58" s="14">
+        <v>20</v>
+      </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="11" t="s">
@@ -11855,19 +11972,19 @@
         <v>3</v>
       </c>
       <c r="L59" s="9">
-        <f>IF($G59&gt;0,IF(K59="","",K59),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="M59" s="12"/>
       <c r="N59" s="13"/>
       <c r="O59" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="9" t="str">
-        <f>IF($G59&gt;0,IF(Q59="","",Q59),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S59" s="44" t="s">
@@ -11883,7 +12000,7 @@
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C60" s="23">
         <v>180</v>
@@ -11895,119 +12012,115 @@
         <v>8</v>
       </c>
       <c r="F60" s="37">
-        <v>57312</v>
+        <v>59144</v>
       </c>
       <c r="G60" s="37"/>
       <c r="H60" s="37">
-        <v>60123</v>
+        <v>56084</v>
       </c>
       <c r="I60" s="37"/>
       <c r="J60" s="12" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="K60" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L60" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M60" s="44" t="s">
-        <v>118</v>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="N60" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O60" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="13"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P60" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>4</v>
+      </c>
       <c r="R60" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S60" s="14" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="T60" s="14">
         <v>20</v>
       </c>
-      <c r="U60" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="V60" s="14">
+      <c r="U60" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="V60" s="46">
         <v>20</v>
       </c>
-      <c r="W60" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="X60" s="14">
-        <v>20</v>
-      </c>
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="11" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C61" s="23">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D61" s="23">
         <v>5</v>
       </c>
       <c r="E61" s="41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F61" s="37">
-        <v>59144</v>
+        <v>61298</v>
       </c>
       <c r="G61" s="37"/>
       <c r="H61" s="37">
-        <v>56084</v>
+        <v>52642</v>
       </c>
       <c r="I61" s="37"/>
       <c r="J61" s="12" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K61" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L61" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M61" s="12" t="s">
-        <v>269</v>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M61" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="N61" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O61" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P61" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q61" s="13">
-        <v>4</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="13"/>
       <c r="R61" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S61" s="14" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="T61" s="14">
         <v>20</v>
       </c>
-      <c r="U61" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="V61" s="46">
+      <c r="U61" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="V61" s="14">
         <v>20</v>
       </c>
       <c r="W61" s="14"/>
@@ -12045,23 +12158,23 @@
         <v>4</v>
       </c>
       <c r="L62" s="9">
-        <f>IF($G62&gt;0,IF(K62="","",K62),"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M62" s="44" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="N62" s="13">
         <v>3</v>
       </c>
       <c r="O62" s="9">
-        <f>IF($G62&gt;0,IF(N62="","",N62),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="13"/>
       <c r="R62" s="9" t="str">
-        <f>IF($G62&gt;0,IF(Q62="","",Q62),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S62" s="14" t="s">
@@ -12080,192 +12193,188 @@
       <c r="X62" s="14"/>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C63" s="23">
+      <c r="B63" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="24">
         <v>160</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="24">
         <v>5</v>
       </c>
       <c r="E63" s="41">
         <v>4</v>
       </c>
-      <c r="F63" s="37">
-        <v>60408</v>
-      </c>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37">
-        <v>50002</v>
-      </c>
-      <c r="I63" s="37"/>
-      <c r="J63" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K63" s="13">
-        <v>5</v>
+      <c r="F63" s="38">
+        <v>55112</v>
+      </c>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38">
+        <v>54159</v>
+      </c>
+      <c r="I63" s="38"/>
+      <c r="J63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="18">
+        <v>4</v>
       </c>
       <c r="L63" s="9" t="str">
-        <f>IF($G63&gt;0,IF(K63="","",K63),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M63" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N63" s="18">
         <v>3</v>
       </c>
       <c r="O63" s="9" t="str">
-        <f>IF($G63&gt;0,IF(N63="","",N63),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P63" s="12"/>
-      <c r="Q63" s="13"/>
+      <c r="Q63" s="18"/>
       <c r="R63" s="9" t="str">
-        <f>IF($G63&gt;0,IF(Q63="","",Q63),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S63" s="14" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="T63" s="14">
-        <v>20</v>
-      </c>
-      <c r="U63" s="14" t="s">
-        <v>279</v>
+        <v>30</v>
+      </c>
+      <c r="U63" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="V63" s="14">
-        <v>20</v>
-      </c>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C64" s="24">
+      <c r="B64" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C64" s="23">
         <v>160</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D64" s="23">
         <v>5</v>
       </c>
       <c r="E64" s="41">
         <v>4</v>
       </c>
-      <c r="F64" s="38">
-        <v>55112</v>
-      </c>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38">
-        <v>54159</v>
-      </c>
-      <c r="I64" s="38"/>
+      <c r="F64" s="37">
+        <v>58464</v>
+      </c>
+      <c r="G64" s="37">
+        <v>7455</v>
+      </c>
+      <c r="H64" s="37">
+        <v>50807</v>
+      </c>
+      <c r="I64" s="38">
+        <v>6478</v>
+      </c>
       <c r="J64" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K64" s="18">
+        <v>15</v>
+      </c>
+      <c r="K64" s="13">
         <v>4</v>
       </c>
-      <c r="L64" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M64" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="N64" s="18">
-        <v>3</v>
-      </c>
-      <c r="O64" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="L64" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M64" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="N64" s="13">
+        <v>4</v>
+      </c>
+      <c r="O64" s="9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P64" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="13">
+        <v>3</v>
+      </c>
+      <c r="R64" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="S64" s="14" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="T64" s="14">
-        <v>30</v>
-      </c>
-      <c r="U64" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="V64" s="14">
-        <v>30</v>
-      </c>
-      <c r="W64" s="20"/>
-      <c r="X64" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14"/>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="11" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="C65" s="23">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D65" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" s="41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F65" s="37">
-        <v>58464</v>
-      </c>
-      <c r="G65" s="37">
-        <v>7455</v>
-      </c>
+        <v>51808</v>
+      </c>
+      <c r="G65" s="37"/>
       <c r="H65" s="37">
-        <v>50807</v>
-      </c>
-      <c r="I65" s="38">
-        <v>6478</v>
-      </c>
-      <c r="J65" s="17" t="s">
-        <v>15</v>
+        <v>52380</v>
+      </c>
+      <c r="I65" s="37"/>
+      <c r="J65" s="71" t="s">
+        <v>105</v>
       </c>
       <c r="K65" s="13">
-        <v>4</v>
-      </c>
-      <c r="L65" s="9">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="M65" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="N65" s="13">
-        <v>4</v>
-      </c>
-      <c r="O65" s="9">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="P65" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q65" s="13">
-        <v>3</v>
-      </c>
-      <c r="R65" s="9">
-        <f>IF($G65&gt;0,IF(Q65="","",Q65),"")</f>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="L65" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M65" s="12"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="S65" s="14" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="T65" s="14">
-        <v>20</v>
-      </c>
-      <c r="U65" s="14"/>
-      <c r="V65" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="U65" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="V65" s="14">
+        <v>30</v>
+      </c>
       <c r="W65" s="14"/>
       <c r="X65" s="14"/>
     </row>
@@ -12297,7 +12406,7 @@
         <v>3</v>
       </c>
       <c r="L66" s="9" t="str">
-        <f>IF($G66&gt;0,IF(K66="","",K66),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M66" s="12" t="s">
@@ -12307,13 +12416,13 @@
         <v>3</v>
       </c>
       <c r="O66" s="9" t="str">
-        <f>IF($G66&gt;0,IF(N66="","",N66),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="13"/>
       <c r="R66" s="9" t="str">
-        <f>IF($G66&gt;0,IF(Q66="","",Q66),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S66" s="14" t="s">
@@ -12359,7 +12468,7 @@
         <v>3</v>
       </c>
       <c r="L67" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M67" s="12" t="s">
@@ -12369,13 +12478,13 @@
         <v>3</v>
       </c>
       <c r="O67" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="13"/>
       <c r="R67" s="9" t="str">
-        <f>IF($G67&gt;0,IF(Q67="","",Q67),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S67" s="14" t="s">
@@ -12395,59 +12504,65 @@
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="11" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="C68" s="23">
-        <v>100</v>
-      </c>
-      <c r="D68" s="23"/>
+        <v>140</v>
+      </c>
+      <c r="D68" s="23">
+        <v>1</v>
+      </c>
       <c r="E68" s="41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F68" s="37">
-        <v>32872</v>
+        <v>46238</v>
       </c>
       <c r="G68" s="37"/>
       <c r="H68" s="37">
-        <v>26352</v>
+        <v>47642</v>
       </c>
       <c r="I68" s="37"/>
-      <c r="J68" s="71" t="s">
-        <v>16</v>
+      <c r="J68" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="K68" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L68" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M68" s="12"/>
-      <c r="N68" s="13"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="N68" s="13">
+        <v>7</v>
+      </c>
       <c r="O68" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="13"/>
       <c r="R68" s="9" t="str">
-        <f>IF($G68&gt;0,IF(Q68="","",Q68),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S68" s="14" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="T68" s="14">
         <v>20</v>
       </c>
       <c r="U68" s="14" t="s">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="V68" s="14">
         <v>20</v>
       </c>
       <c r="W68" s="46" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="X68" s="46">
         <v>20</v>
@@ -12455,65 +12570,63 @@
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="11" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="C69" s="23">
-        <v>170</v>
-      </c>
-      <c r="D69" s="23">
-        <v>5</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D69" s="23"/>
       <c r="E69" s="41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F69" s="37">
-        <v>44709</v>
+        <v>32872</v>
       </c>
       <c r="G69" s="37"/>
       <c r="H69" s="37">
-        <v>54089</v>
+        <v>26352</v>
       </c>
       <c r="I69" s="37"/>
-      <c r="J69" s="12" t="s">
-        <v>17</v>
+      <c r="J69" s="71" t="s">
+        <v>16</v>
       </c>
       <c r="K69" s="13">
         <v>4</v>
       </c>
       <c r="L69" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M69" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N69" s="13">
-        <v>4</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M69" s="12"/>
+      <c r="N69" s="13"/>
       <c r="O69" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="13"/>
       <c r="R69" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S69" s="14" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="T69" s="14">
         <v>20</v>
       </c>
       <c r="U69" s="14" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="V69" s="14">
         <v>20</v>
       </c>
-      <c r="W69" s="14"/>
-      <c r="X69" s="14"/>
+      <c r="W69" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X69" s="46">
+        <v>20</v>
+      </c>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="11" t="s">
@@ -12543,7 +12656,7 @@
         <v>2</v>
       </c>
       <c r="L70" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M70" s="12" t="s">
@@ -12553,7 +12666,7 @@
         <v>2</v>
       </c>
       <c r="O70" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P70" s="44" t="s">
@@ -12563,7 +12676,7 @@
         <v>3</v>
       </c>
       <c r="R70" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S70" s="14" t="s">
@@ -12605,19 +12718,19 @@
         <v>3</v>
       </c>
       <c r="L71" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M71" s="12"/>
       <c r="N71" s="13"/>
       <c r="O71" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="13"/>
       <c r="R71" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S71" s="14" t="s">
@@ -12638,7 +12751,7 @@
       <c r="E72" s="26"/>
       <c r="F72" s="48">
         <f>SUM(F44:F71)</f>
-        <v>1814065</v>
+        <v>1805822</v>
       </c>
       <c r="G72" s="48">
         <f>SUM(G44:G71)</f>
@@ -12646,7 +12759,7 @@
       </c>
       <c r="H72" s="48">
         <f>SUM(H44:H71)</f>
-        <v>1725062</v>
+        <v>1717217</v>
       </c>
       <c r="I72" s="48">
         <f>SUM(I44:I71)</f>
@@ -12679,7 +12792,7 @@
       </c>
       <c r="N73" s="15">
         <f>SUM(N5:N71)</f>
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O73" s="15">
         <f>SUM(O5:O71)</f>
@@ -12687,7 +12800,7 @@
       </c>
       <c r="Q73" s="15">
         <f>SUM(Q5:Q71)</f>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="R73" s="15">
         <f>SUM(R5:R71)</f>
@@ -12699,7 +12812,7 @@
       </c>
       <c r="U73" s="15">
         <f>COUNTA(U6:U71)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W73" s="15">
         <f>COUNTA(W5:W71)</f>
@@ -12716,10 +12829,10 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="11" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C89" s="23">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D89" s="23">
         <v>5</v>
@@ -12728,15 +12841,15 @@
         <v>8</v>
       </c>
       <c r="F89" s="37">
-        <v>49887</v>
+        <v>71733</v>
       </c>
       <c r="G89" s="37"/>
       <c r="H89" s="37">
-        <v>50411</v>
+        <v>62351</v>
       </c>
       <c r="I89" s="37"/>
       <c r="J89" s="12" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="K89" s="13">
         <v>5</v>
@@ -12745,11 +12858,11 @@
         <f>IF($G89&gt;0,IF(K89="","",K89),"")</f>
         <v/>
       </c>
-      <c r="M89" s="44" t="s">
-        <v>22</v>
+      <c r="M89" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="N89" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O89" s="9" t="str">
         <f>IF($G89&gt;0,IF(N89="","",N89),"")</f>
@@ -12762,86 +12875,95 @@
         <v/>
       </c>
       <c r="S89" s="14" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="T89" s="14">
+        <v>30</v>
+      </c>
+      <c r="U89" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="V89" s="14">
+        <v>30</v>
+      </c>
+      <c r="W89" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="X89" s="46">
         <v>20</v>
       </c>
-      <c r="U89" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="V89" s="14">
-        <v>20</v>
-      </c>
-      <c r="W89" s="14"/>
-      <c r="X89" s="14"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="15" t="s">
+        <v>288</v>
+      </c>
       <c r="B90" s="11" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C90" s="23">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D90" s="23">
         <v>5</v>
       </c>
       <c r="E90" s="41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F90" s="37">
-        <f>65886</f>
-        <v>65886</v>
+        <v>67211</v>
       </c>
       <c r="G90" s="37"/>
       <c r="H90" s="37">
-        <f>60272</f>
-        <v>60272</v>
+        <v>61426</v>
       </c>
       <c r="I90" s="37"/>
       <c r="J90" s="12" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="K90" s="13">
         <v>5</v>
       </c>
-      <c r="L90" s="19" t="str">
-        <f t="shared" ref="L90" si="12">IF($G90&gt;0,K90,"")</f>
-        <v/>
-      </c>
-      <c r="M90" s="12" t="s">
-        <v>234</v>
+      <c r="L90" s="9" t="str">
+        <f t="shared" ref="L90:L118" si="6">IF($G90&gt;0,IF(K90="","",K90),"")</f>
+        <v/>
+      </c>
+      <c r="M90" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="N90" s="13">
         <v>3</v>
       </c>
       <c r="O90" s="19" t="str">
-        <f t="shared" ref="O90" si="13">IF($G90&gt;0,N90,"")</f>
+        <f>IF($G90&gt;0,N90,"")</f>
         <v/>
       </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="13"/>
       <c r="R90" s="9" t="str">
-        <f t="shared" ref="R90" si="14">IF($G90&gt;0,IF(Q90="","",Q90),"")</f>
+        <f>IF($G90&gt;0,IF(Q90="","",Q90),"")</f>
         <v/>
       </c>
       <c r="S90" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T90" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="T90" s="14">
+        <v>20</v>
+      </c>
       <c r="U90" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="V90" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="V90" s="14">
+        <v>20</v>
+      </c>
       <c r="W90" s="14"/>
       <c r="X90" s="14"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C91" s="23">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D91" s="23">
         <v>5</v>
@@ -12850,31 +12972,31 @@
         <v>8</v>
       </c>
       <c r="F91" s="37">
-        <v>62779</v>
+        <v>44709</v>
       </c>
       <c r="G91" s="37"/>
       <c r="H91" s="37">
-        <v>65869</v>
+        <v>54089</v>
       </c>
       <c r="I91" s="37"/>
       <c r="J91" s="12" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="K91" s="13">
-        <v>2</v>
-      </c>
-      <c r="L91" s="19" t="str">
-        <f>IF($G91&gt;0,K91,"")</f>
+        <v>4</v>
+      </c>
+      <c r="L91" s="9" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M91" s="12" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N91" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O91" s="19" t="str">
-        <f>IF($G91&gt;0,N91,"")</f>
+        <f t="shared" ref="O91:O113" si="7">IF($G91&gt;0,N91,"")</f>
         <v/>
       </c>
       <c r="P91" s="12"/>
@@ -12883,265 +13005,261 @@
         <f>IF($G91&gt;0,IF(Q91="","",Q91),"")</f>
         <v/>
       </c>
-      <c r="S91" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="T91" s="46"/>
-      <c r="U91" s="14"/>
+      <c r="S91" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="T91" s="14"/>
+      <c r="U91" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="V91" s="14"/>
       <c r="W91" s="14"/>
-      <c r="X91" s="46"/>
+      <c r="X91" s="14"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="B92" s="11" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C92" s="23">
-        <v>105</v>
-      </c>
-      <c r="D92" s="23"/>
+        <v>180</v>
+      </c>
+      <c r="D92" s="23">
+        <v>5</v>
+      </c>
       <c r="E92" s="41">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F92" s="37">
-        <f>27073</f>
-        <v>27073</v>
+        <v>68913</v>
       </c>
       <c r="G92" s="37"/>
       <c r="H92" s="37">
-        <f>30131</f>
-        <v>30131</v>
+        <v>67670</v>
       </c>
       <c r="I92" s="37"/>
       <c r="J92" s="12" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="K92" s="13">
-        <v>2</v>
-      </c>
-      <c r="L92" s="19" t="str">
-        <f>IF($G92&gt;0,K92,"")</f>
+        <v>4</v>
+      </c>
+      <c r="L92" s="9" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M92" s="12" t="s">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="N92" s="13">
         <v>4</v>
       </c>
       <c r="O92" s="19" t="str">
-        <f>IF($G92&gt;0,N92,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="13"/>
       <c r="R92" s="9" t="str">
-        <f>IF($G92&gt;0,IF(Q92="","",Q92),"")</f>
-        <v/>
-      </c>
-      <c r="S92" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="T92" s="14"/>
-      <c r="U92" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="V92" s="46"/>
+        <f t="shared" ref="R92:R118" si="8">IF($G92&gt;0,IF(Q92="","",Q92),"")</f>
+        <v/>
+      </c>
+      <c r="S92" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="T92" s="110">
+        <v>30</v>
+      </c>
+      <c r="U92" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="V92" s="14">
+        <v>30</v>
+      </c>
       <c r="W92" s="14"/>
-      <c r="X92" s="14"/>
+      <c r="X92" s="110"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="B93" s="11" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C93" s="23">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D93" s="23">
         <v>5</v>
       </c>
       <c r="E93" s="41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" s="37">
-        <v>44939</v>
+        <v>66402</v>
       </c>
       <c r="G93" s="37"/>
       <c r="H93" s="37">
-        <v>40660</v>
+        <v>67581</v>
       </c>
       <c r="I93" s="37"/>
       <c r="J93" s="12" t="s">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="K93" s="13">
         <v>4</v>
       </c>
       <c r="L93" s="9" t="str">
-        <f>IF($G93&gt;0,K93,"")</f>
-        <v/>
-      </c>
-      <c r="M93" s="12" t="s">
-        <v>291</v>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M93" s="44" t="s">
+        <v>192</v>
       </c>
       <c r="N93" s="13">
-        <v>4</v>
-      </c>
-      <c r="O93" s="9" t="str">
-        <f>IF($G93&gt;0,N93,"")</f>
-        <v/>
-      </c>
-      <c r="P93" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q93" s="13">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O93" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="13"/>
       <c r="R93" s="9" t="str">
-        <f>IF($G93&gt;0,IF(Q93="","",Q93),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S93" s="14" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="T93" s="14"/>
-      <c r="U93" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="U93" s="14"/>
       <c r="V93" s="14"/>
       <c r="W93" s="14"/>
       <c r="X93" s="14"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="11" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C94" s="23">
-        <v>115</v>
-      </c>
-      <c r="D94" s="23"/>
+        <v>160</v>
+      </c>
+      <c r="D94" s="23">
+        <v>5</v>
+      </c>
       <c r="E94" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" s="37">
-        <v>34857</v>
-      </c>
-      <c r="G94" s="37"/>
+        <v>58464</v>
+      </c>
+      <c r="G94" s="37">
+        <v>7981</v>
+      </c>
       <c r="H94" s="37">
-        <v>34767</v>
-      </c>
-      <c r="I94" s="37"/>
+        <v>50807</v>
+      </c>
+      <c r="I94" s="37">
+        <v>6936</v>
+      </c>
       <c r="J94" s="12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K94" s="13">
-        <v>1</v>
-      </c>
-      <c r="L94" s="19" t="str">
-        <f>IF($G94&gt;0,K94,"")</f>
-        <v/>
-      </c>
-      <c r="M94" s="12" t="s">
-        <v>293</v>
+        <v>4</v>
+      </c>
+      <c r="L94" s="9">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M94" s="70" t="s">
+        <v>16</v>
       </c>
       <c r="N94" s="13">
-        <v>1</v>
-      </c>
-      <c r="O94" s="19" t="str">
-        <f>IF($G94&gt;0,N94,"")</f>
-        <v/>
-      </c>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="9" t="str">
-        <f>IF($G94&gt;0,IF(Q94="","",Q94),"")</f>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="O94" s="19">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="P94" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q94" s="13">
+        <v>3</v>
+      </c>
+      <c r="R94" s="9">
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="S94" s="14" t="s">
-        <v>271</v>
+        <v>117</v>
       </c>
       <c r="T94" s="14"/>
-      <c r="U94" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="V94" s="46"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="14"/>
       <c r="W94" s="14"/>
       <c r="X94" s="14"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C95" s="23">
-        <v>155</v>
-      </c>
-      <c r="D95" s="23">
-        <v>5</v>
-      </c>
+      <c r="B95" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" s="24">
+        <v>115</v>
+      </c>
+      <c r="D95" s="24"/>
       <c r="E95" s="41">
-        <v>3</v>
-      </c>
-      <c r="F95" s="37">
-        <v>60766</v>
-      </c>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37">
-        <v>58266</v>
-      </c>
-      <c r="I95" s="37"/>
-      <c r="J95" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K95" s="13">
-        <v>3</v>
-      </c>
-      <c r="L95" s="19" t="str">
-        <f>IF($G95&gt;0,K95,"")</f>
-        <v/>
-      </c>
-      <c r="M95" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="N95" s="13">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F95" s="38">
+        <v>34857</v>
+      </c>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38">
+        <v>34767</v>
+      </c>
+      <c r="I95" s="38"/>
+      <c r="J95" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" s="18">
+        <v>1</v>
+      </c>
+      <c r="L95" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M95" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="N95" s="18">
+        <v>1</v>
       </c>
       <c r="O95" s="19" t="str">
-        <f>IF($G95&gt;0,N95,"")</f>
-        <v/>
-      </c>
-      <c r="P95" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q95" s="13">
-        <v>3</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="18"/>
       <c r="R95" s="9" t="str">
-        <f>IF($G95&gt;0,IF(Q95="","",Q95),"")</f>
-        <v/>
-      </c>
-      <c r="S95" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="T95" s="110"/>
-      <c r="U95" s="46" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S95" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="T95" s="20"/>
+      <c r="U95" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="V95" s="46"/>
+      <c r="V95" s="47"/>
       <c r="W95" s="14"/>
-      <c r="X95" s="110"/>
+      <c r="X95" s="20"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="11" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C96" s="23">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D96" s="23">
         <v>5</v>
@@ -13150,56 +13268,54 @@
         <v>8</v>
       </c>
       <c r="F96" s="37">
-        <v>43859</v>
+        <v>62779</v>
       </c>
       <c r="G96" s="37"/>
       <c r="H96" s="37">
-        <v>35995</v>
+        <v>65869</v>
       </c>
       <c r="I96" s="37"/>
       <c r="J96" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K96" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L96" s="9" t="str">
-        <f t="shared" ref="L96:L97" si="15">IF($G96&gt;0,K96,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M96" s="12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="N96" s="13">
-        <v>5</v>
-      </c>
-      <c r="O96" s="9" t="str">
-        <f t="shared" ref="O96:O97" si="16">IF($G96&gt;0,N96,"")</f>
+        <v>2</v>
+      </c>
+      <c r="O96" s="19" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="13"/>
       <c r="R96" s="9" t="str">
-        <f t="shared" ref="R96:R97" si="17">IF($G96&gt;0,IF(Q96="","",Q96),"")</f>
-        <v/>
-      </c>
-      <c r="S96" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="T96" s="14"/>
-      <c r="U96" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="V96" s="46"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S96" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="T96" s="46"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="14"/>
       <c r="W96" s="14"/>
-      <c r="X96" s="14"/>
+      <c r="X96" s="46"/>
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="11" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="C97" s="23">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D97" s="23">
         <v>5</v>
@@ -13208,173 +13324,179 @@
         <v>8</v>
       </c>
       <c r="F97" s="37">
-        <v>33836</v>
+        <v>57486</v>
       </c>
       <c r="G97" s="37"/>
       <c r="H97" s="37">
-        <v>29738</v>
-      </c>
-      <c r="I97" s="37"/>
-      <c r="J97" s="12" t="s">
-        <v>299</v>
+        <v>55242</v>
+      </c>
+      <c r="I97" s="38"/>
+      <c r="J97" s="17" t="s">
+        <v>232</v>
       </c>
       <c r="K97" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L97" s="9" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M97" s="17" t="s">
-        <v>203</v>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="N97" s="13">
-        <v>4</v>
-      </c>
-      <c r="O97" s="9" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P97" s="12" t="s">
-        <v>300</v>
+        <v>3</v>
+      </c>
+      <c r="O97" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P97" s="44" t="s">
+        <v>73</v>
       </c>
       <c r="Q97" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R97" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S97" s="14" t="s">
-        <v>262</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S97" s="14"/>
       <c r="T97" s="14"/>
-      <c r="U97" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="V97" s="46"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="14"/>
       <c r="W97" s="14"/>
       <c r="X97" s="14"/>
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C98" s="24">
-        <v>150</v>
-      </c>
-      <c r="D98" s="24">
+      <c r="B98" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" s="23">
+        <v>180</v>
+      </c>
+      <c r="D98" s="23">
         <v>5</v>
       </c>
       <c r="E98" s="41">
-        <v>2</v>
-      </c>
-      <c r="F98" s="38">
-        <v>54720</v>
-      </c>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38">
-        <v>44350</v>
-      </c>
-      <c r="I98" s="38"/>
-      <c r="J98" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="K98" s="18">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F98" s="37">
+        <f>65886</f>
+        <v>65886</v>
+      </c>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37">
+        <f>60272</f>
+        <v>60272</v>
+      </c>
+      <c r="I98" s="37"/>
+      <c r="J98" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K98" s="13">
+        <v>5</v>
       </c>
       <c r="L98" s="9" t="str">
-        <f>IF($G98&gt;0,K98,"")</f>
-        <v/>
-      </c>
-      <c r="M98" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="N98" s="18">
-        <v>2</v>
-      </c>
-      <c r="O98" s="9" t="str">
-        <f>IF($G98&gt;0,N98,"")</f>
-        <v/>
-      </c>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="18"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M98" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="N98" s="13">
+        <v>3</v>
+      </c>
+      <c r="O98" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="13"/>
       <c r="R98" s="9" t="str">
-        <f>IF($G98&gt;0,IF(Q98="","",Q98),"")</f>
-        <v/>
-      </c>
-      <c r="S98" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="T98" s="20"/>
-      <c r="U98" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="V98" s="47"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S98" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T98" s="14">
+        <v>20</v>
+      </c>
+      <c r="U98" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="V98" s="14">
+        <v>20</v>
+      </c>
       <c r="W98" s="14"/>
-      <c r="X98" s="20"/>
+      <c r="X98" s="14"/>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B99" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C99" s="23">
+      <c r="B99" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" s="24">
         <v>180</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D99" s="24">
         <v>5</v>
       </c>
       <c r="E99" s="41">
         <v>8</v>
       </c>
-      <c r="F99" s="37">
-        <v>57486</v>
-      </c>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37">
-        <v>55242</v>
-      </c>
-      <c r="I99" s="37"/>
-      <c r="J99" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="K99" s="13">
-        <v>5</v>
+      <c r="F99" s="38">
+        <v>62874</v>
+      </c>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38">
+        <v>64561</v>
+      </c>
+      <c r="I99" s="38"/>
+      <c r="J99" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K99" s="18">
+        <v>1</v>
       </c>
       <c r="L99" s="9" t="str">
-        <f t="shared" ref="L99:L101" si="18">IF($G99&gt;0,K99,"")</f>
-        <v/>
-      </c>
-      <c r="M99" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="N99" s="13">
-        <v>3</v>
-      </c>
-      <c r="O99" s="9" t="str">
-        <f t="shared" ref="O99:O101" si="19">IF($G99&gt;0,N99,"")</f>
-        <v/>
-      </c>
-      <c r="P99" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q99" s="13">
-        <v>3</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M99" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="N99" s="18">
+        <v>3</v>
+      </c>
+      <c r="O99" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="18"/>
       <c r="R99" s="9" t="str">
-        <f t="shared" ref="R99:R101" si="20">IF($G99&gt;0,IF(Q99="","",Q99),"")</f>
-        <v/>
-      </c>
-      <c r="S99" s="14"/>
-      <c r="T99" s="14"/>
-      <c r="U99" s="14"/>
-      <c r="V99" s="14"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S99" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T99" s="20">
+        <v>20</v>
+      </c>
+      <c r="U99" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="V99" s="14">
+        <v>20</v>
+      </c>
       <c r="W99" s="14"/>
-      <c r="X99" s="14"/>
+      <c r="X99" s="20"/>
     </row>
     <row r="100" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="11" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C100" s="23">
         <v>160</v>
@@ -13386,171 +13508,167 @@
         <v>4</v>
       </c>
       <c r="F100" s="37">
-        <v>58464</v>
-      </c>
-      <c r="G100" s="37">
-        <v>7981</v>
-      </c>
+        <v>63098</v>
+      </c>
+      <c r="G100" s="37"/>
       <c r="H100" s="37">
-        <v>50807</v>
-      </c>
-      <c r="I100" s="38">
-        <v>6936</v>
-      </c>
+        <v>55583</v>
+      </c>
+      <c r="I100" s="38"/>
       <c r="J100" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="K100" s="13">
         <v>4</v>
       </c>
-      <c r="L100" s="19">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="M100" s="71" t="s">
-        <v>16</v>
+      <c r="L100" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M100" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="N100" s="13">
-        <v>4</v>
-      </c>
-      <c r="O100" s="19">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="P100" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q100" s="13">
-        <v>3</v>
-      </c>
-      <c r="R100" s="9">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="S100" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="T100" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="O100" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S100" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="T100" s="110"/>
       <c r="U100" s="14"/>
       <c r="V100" s="14"/>
       <c r="W100" s="14"/>
-      <c r="X100" s="14"/>
+      <c r="X100" s="110"/>
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="11" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="C101" s="23">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D101" s="23">
         <v>5</v>
       </c>
       <c r="E101" s="41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F101" s="37">
-        <v>44709</v>
+        <v>54720</v>
       </c>
       <c r="G101" s="37"/>
       <c r="H101" s="37">
-        <v>54089</v>
+        <v>44350</v>
       </c>
       <c r="I101" s="37"/>
       <c r="J101" s="12" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="K101" s="13">
         <v>4</v>
       </c>
-      <c r="L101" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M101" s="12" t="s">
-        <v>22</v>
+      <c r="L101" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M101" s="71" t="s">
+        <v>31</v>
       </c>
       <c r="N101" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O101" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="13"/>
       <c r="R101" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S101" s="14" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="T101" s="14"/>
-      <c r="U101" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="V101" s="14"/>
+      <c r="U101" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="V101" s="46"/>
       <c r="W101" s="14"/>
       <c r="X101" s="14"/>
     </row>
     <row r="102" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C102" s="24">
-        <v>170</v>
-      </c>
-      <c r="D102" s="24">
+      <c r="B102" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="23">
+        <v>160</v>
+      </c>
+      <c r="D102" s="23">
         <v>5</v>
       </c>
       <c r="E102" s="41">
-        <v>6</v>
-      </c>
-      <c r="F102" s="38">
-        <v>57667</v>
-      </c>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38">
-        <v>55895</v>
-      </c>
-      <c r="I102" s="38"/>
-      <c r="J102" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="K102" s="18">
         <v>4</v>
       </c>
+      <c r="F102" s="37">
+        <v>63386</v>
+      </c>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37">
+        <v>51205</v>
+      </c>
+      <c r="I102" s="37"/>
+      <c r="J102" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K102" s="13">
+        <v>5</v>
+      </c>
       <c r="L102" s="9" t="str">
-        <f>IF($G102&gt;0,K102,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M102" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="N102" s="18">
-        <v>3</v>
-      </c>
-      <c r="O102" s="9" t="str">
-        <f>IF($G102&gt;0,N102,"")</f>
-        <v/>
-      </c>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="N102" s="13">
+        <v>3</v>
+      </c>
+      <c r="O102" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="13"/>
       <c r="R102" s="9" t="str">
-        <f>IF($G102&gt;0,IF(Q102="","",Q102),"")</f>
-        <v/>
-      </c>
-      <c r="S102" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="T102" s="20"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S102" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="T102" s="110">
+        <v>30</v>
+      </c>
       <c r="U102" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="V102" s="14"/>
+        <v>209</v>
+      </c>
+      <c r="V102" s="14">
+        <v>30</v>
+      </c>
       <c r="W102" s="14"/>
-      <c r="X102" s="20"/>
+      <c r="X102" s="110"/>
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="11" t="s">
@@ -13574,17 +13692,17 @@
       <c r="H103" s="37">
         <v>50807</v>
       </c>
-      <c r="I103" s="38">
+      <c r="I103" s="37">
         <v>5564</v>
       </c>
-      <c r="J103" s="17" t="s">
+      <c r="J103" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K103" s="13">
         <v>5</v>
       </c>
-      <c r="L103" s="19">
-        <f t="shared" ref="L103" si="21">IF($G103&gt;0,K103,"")</f>
+      <c r="L103" s="9">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="M103" s="71" t="s">
@@ -13594,13 +13712,13 @@
         <v>5</v>
       </c>
       <c r="O103" s="19">
-        <f t="shared" ref="O103" si="22">IF($G103&gt;0,N103,"")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="13"/>
       <c r="R103" s="9" t="str">
-        <f t="shared" ref="R103" si="23">IF($G103&gt;0,IF(Q103="","",Q103),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S103" s="12" t="s">
@@ -13616,66 +13734,76 @@
     </row>
     <row r="104" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="11" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="C104" s="23">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D104" s="23">
         <v>5</v>
       </c>
       <c r="E104" s="41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F104" s="37">
-        <v>66402</v>
+        <v>60936</v>
       </c>
       <c r="G104" s="37"/>
       <c r="H104" s="37">
-        <v>67581</v>
+        <v>58998</v>
       </c>
       <c r="I104" s="37"/>
       <c r="J104" s="12" t="s">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="K104" s="13">
         <v>4</v>
       </c>
       <c r="L104" s="9" t="str">
-        <f>IF($G104&gt;0,K104,"")</f>
-        <v/>
-      </c>
-      <c r="M104" s="44" t="s">
-        <v>192</v>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M104" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="N104" s="13">
-        <v>3</v>
-      </c>
-      <c r="O104" s="9" t="str">
-        <f>IF($G104&gt;0,N104,"")</f>
-        <v/>
-      </c>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="O104" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P104" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q104" s="13">
+        <v>3</v>
+      </c>
       <c r="R104" s="9" t="str">
-        <f>IF($G104&gt;0,IF(Q104="","",Q104),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S104" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="T104" s="14"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="14"/>
+        <v>120</v>
+      </c>
+      <c r="T104" s="14">
+        <v>20</v>
+      </c>
+      <c r="U104" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="V104" s="46">
+        <v>20</v>
+      </c>
       <c r="W104" s="14"/>
       <c r="X104" s="14"/>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="11" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C105" s="23">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D105" s="23">
         <v>5</v>
@@ -13684,166 +13812,188 @@
         <v>8</v>
       </c>
       <c r="F105" s="37">
-        <v>62462</v>
+        <v>49887</v>
       </c>
       <c r="G105" s="37"/>
       <c r="H105" s="37">
-        <v>55266</v>
+        <v>50411</v>
       </c>
       <c r="I105" s="37"/>
       <c r="J105" s="12" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K105" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L105" s="9" t="str">
-        <f t="shared" ref="L105" si="24">IF($G105&gt;0,K105,"")</f>
-        <v/>
-      </c>
-      <c r="M105" s="12" t="s">
-        <v>63</v>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M105" s="44" t="s">
+        <v>22</v>
       </c>
       <c r="N105" s="13">
-        <v>2</v>
-      </c>
-      <c r="O105" s="9" t="str">
-        <f t="shared" ref="O105" si="25">IF($G105&gt;0,N105,"")</f>
+        <v>1</v>
+      </c>
+      <c r="O105" s="19" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P105" s="12"/>
       <c r="Q105" s="13"/>
       <c r="R105" s="9" t="str">
-        <f t="shared" ref="R105" si="26">IF($G105&gt;0,IF(Q105="","",Q105),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S105" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="T105" s="14"/>
-      <c r="U105" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="V105" s="46"/>
+        <v>29</v>
+      </c>
+      <c r="T105" s="14">
+        <v>20</v>
+      </c>
+      <c r="U105" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V105" s="14">
+        <v>20</v>
+      </c>
       <c r="W105" s="14"/>
       <c r="X105" s="14"/>
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C106" s="23">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D106" s="23">
         <v>5</v>
       </c>
       <c r="E106" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F106" s="37">
-        <v>63098</v>
+        <v>57667</v>
       </c>
       <c r="G106" s="37"/>
       <c r="H106" s="37">
-        <v>55583</v>
+        <v>55895</v>
       </c>
       <c r="I106" s="37"/>
       <c r="J106" s="12" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="K106" s="13">
         <v>4</v>
       </c>
       <c r="L106" s="9" t="str">
-        <f t="shared" ref="L106:L111" si="27">IF($G106&gt;0,K106,"")</f>
-        <v/>
-      </c>
-      <c r="M106" s="44" t="s">
-        <v>39</v>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M106" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="N106" s="13">
-        <v>1</v>
-      </c>
-      <c r="O106" s="9" t="str">
-        <f>IF($G106&gt;0,N106,"")</f>
+        <v>3</v>
+      </c>
+      <c r="O106" s="19" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P106" s="12"/>
       <c r="Q106" s="13"/>
       <c r="R106" s="9" t="str">
-        <f t="shared" ref="R106:R111" si="28">IF($G106&gt;0,IF(Q106="","",Q106),"")</f>
-        <v/>
-      </c>
-      <c r="S106" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="T106" s="110"/>
-      <c r="U106" s="14"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S106" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="T106" s="14"/>
+      <c r="U106" s="14" t="s">
+        <v>220</v>
+      </c>
       <c r="V106" s="14"/>
       <c r="W106" s="14"/>
-      <c r="X106" s="110"/>
+      <c r="X106" s="14"/>
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="11" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="C107" s="23">
-        <v>130</v>
-      </c>
-      <c r="D107" s="23"/>
+        <v>180</v>
+      </c>
+      <c r="D107" s="23">
+        <v>5</v>
+      </c>
       <c r="E107" s="41">
         <v>8</v>
       </c>
       <c r="F107" s="37">
-        <v>57713</v>
-      </c>
-      <c r="G107" s="37"/>
+        <v>59888</v>
+      </c>
+      <c r="G107" s="37">
+        <v>8984</v>
+      </c>
       <c r="H107" s="37">
-        <v>47154</v>
-      </c>
-      <c r="I107" s="37"/>
+        <v>61247</v>
+      </c>
+      <c r="I107" s="37">
+        <v>9188</v>
+      </c>
       <c r="J107" s="12" t="s">
-        <v>305</v>
+        <v>87</v>
       </c>
       <c r="K107" s="13">
-        <v>4</v>
-      </c>
-      <c r="L107" s="9" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="L107" s="9">
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="N107" s="13">
-        <v>2</v>
-      </c>
-      <c r="O107" s="9" t="str">
-        <f>IF($G107&gt;0,N107,"")</f>
-        <v/>
-      </c>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="S107" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="T107" s="110"/>
-      <c r="U107" s="14"/>
-      <c r="V107" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="O107" s="19">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="P107" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q107" s="13">
+        <v>5</v>
+      </c>
+      <c r="R107" s="9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="S107" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="T107" s="14">
+        <v>20</v>
+      </c>
+      <c r="U107" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="V107" s="46">
+        <v>20</v>
+      </c>
       <c r="W107" s="14"/>
-      <c r="X107" s="110"/>
+      <c r="X107" s="14"/>
     </row>
     <row r="108" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="11" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="C108" s="23">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D108" s="23">
         <v>5</v>
@@ -13852,53 +14002,53 @@
         <v>8</v>
       </c>
       <c r="F108" s="37">
-        <v>68913</v>
+        <v>44939</v>
       </c>
       <c r="G108" s="37"/>
       <c r="H108" s="37">
-        <v>67670</v>
+        <v>40660</v>
       </c>
       <c r="I108" s="37"/>
       <c r="J108" s="12" t="s">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="K108" s="13">
         <v>4</v>
       </c>
       <c r="L108" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M108" s="12" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="N108" s="13">
         <v>4</v>
       </c>
-      <c r="O108" s="9" t="str">
-        <f>IF($G108&gt;0,N108,"")</f>
-        <v/>
-      </c>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="13"/>
+      <c r="O108" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P108" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q108" s="13">
+        <v>4</v>
+      </c>
       <c r="R108" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S108" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T108" s="14">
-        <v>30</v>
-      </c>
-      <c r="U108" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="V108" s="14">
-        <v>30</v>
-      </c>
-      <c r="W108" s="14"/>
-      <c r="X108" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="T108" s="14"/>
+      <c r="U108" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="V108" s="14"/>
+      <c r="W108" s="20"/>
+      <c r="X108" s="20"/>
     </row>
     <row r="109" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="11" t="s">
@@ -13927,8 +14077,8 @@
       <c r="K109" s="13">
         <v>5</v>
       </c>
-      <c r="L109" s="19" t="str">
-        <f t="shared" si="27"/>
+      <c r="L109" s="9" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M109" s="12" t="s">
@@ -13938,7 +14088,7 @@
         <v>5</v>
       </c>
       <c r="O109" s="19" t="str">
-        <f>IF($G109&gt;0,N109,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P109" s="44" t="s">
@@ -13948,7 +14098,7 @@
         <v>3</v>
       </c>
       <c r="R109" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S109" s="14" t="s">
@@ -13964,61 +14114,57 @@
     </row>
     <row r="110" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="11" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="C110" s="23">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D110" s="23">
         <v>5</v>
       </c>
       <c r="E110" s="41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F110" s="37">
-        <v>67211</v>
+        <v>34776</v>
       </c>
       <c r="G110" s="37"/>
       <c r="H110" s="37">
-        <v>61426</v>
-      </c>
-      <c r="I110" s="37"/>
-      <c r="J110" s="12" t="s">
-        <v>16</v>
+        <v>39039</v>
+      </c>
+      <c r="I110" s="38"/>
+      <c r="J110" s="17" t="s">
+        <v>284</v>
       </c>
       <c r="K110" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L110" s="9" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M110" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="N110" s="13">
-        <v>3</v>
-      </c>
-      <c r="O110" s="9" t="str">
-        <f>IF($G110&gt;0,N110,"")</f>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M110" s="71"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="19" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="13"/>
       <c r="R110" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S110" s="14" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="T110" s="14">
         <v>20</v>
       </c>
-      <c r="U110" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="V110" s="14">
+      <c r="U110" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="V110" s="46">
         <v>20</v>
       </c>
       <c r="W110" s="14"/>
@@ -14026,131 +14172,123 @@
     </row>
     <row r="111" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="11" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="C111" s="23">
-        <v>180</v>
-      </c>
-      <c r="D111" s="23">
-        <v>5</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D111" s="23"/>
       <c r="E111" s="41">
         <v>8</v>
       </c>
       <c r="F111" s="37">
-        <v>69599</v>
-      </c>
-      <c r="G111" s="37">
-        <v>8874</v>
-      </c>
+        <v>57713</v>
+      </c>
+      <c r="G111" s="37"/>
       <c r="H111" s="37">
-        <v>60345</v>
-      </c>
-      <c r="I111" s="37">
-        <v>7694</v>
-      </c>
+        <v>47154</v>
+      </c>
+      <c r="I111" s="37"/>
       <c r="J111" s="12" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="K111" s="13">
-        <v>3</v>
-      </c>
-      <c r="L111" s="19">
-        <f t="shared" si="27"/>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="L111" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M111" s="12" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="N111" s="13">
-        <v>3</v>
-      </c>
-      <c r="O111" s="19">
-        <f t="shared" ref="O111" si="29">IF($G111&gt;0,N111,"")</f>
-        <v>3</v>
-      </c>
-      <c r="P111" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q111" s="13">
-        <v>3</v>
-      </c>
-      <c r="R111" s="9">
-        <f t="shared" si="28"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="O111" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="13"/>
+      <c r="R111" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="S111" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="T111" s="14">
-        <v>20</v>
-      </c>
-      <c r="U111" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="V111" s="14">
-        <v>20</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="T111" s="14"/>
+      <c r="U111" s="20"/>
+      <c r="V111" s="14"/>
       <c r="W111" s="14"/>
       <c r="X111" s="14"/>
     </row>
     <row r="112" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="11" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C112" s="23">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D112" s="23">
         <v>5</v>
       </c>
       <c r="E112" s="41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F112" s="37">
-        <v>75486</v>
+        <v>60766</v>
       </c>
       <c r="G112" s="37"/>
       <c r="H112" s="37">
-        <v>61108</v>
+        <v>58266</v>
       </c>
       <c r="I112" s="37"/>
       <c r="J112" s="12" t="s">
-        <v>248</v>
+        <v>62</v>
       </c>
       <c r="K112" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L112" s="9" t="str">
-        <f t="shared" ref="L112:L117" si="30">IF($G112&gt;0,IF(K112="","",K112),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M112" s="12" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="N112" s="13">
-        <v>2</v>
-      </c>
-      <c r="O112" s="9" t="str">
-        <f t="shared" ref="O112:O117" si="31">IF($G112&gt;0,IF(N112="","",N112),"")</f>
-        <v/>
-      </c>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="O112" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P112" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q112" s="13">
+        <v>3</v>
+      </c>
       <c r="R112" s="9" t="str">
-        <f t="shared" ref="R112:R117" si="32">IF($G112&gt;0,IF(Q112="","",Q112),"")</f>
-        <v/>
-      </c>
-      <c r="S112" s="14"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S112" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="T112" s="14"/>
-      <c r="U112" s="14"/>
-      <c r="V112" s="14"/>
+      <c r="U112" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="V112" s="46"/>
       <c r="W112" s="14"/>
       <c r="X112" s="14"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C113" s="23">
         <v>180</v>
@@ -14162,126 +14300,96 @@
         <v>8</v>
       </c>
       <c r="F113" s="37">
-        <v>59888</v>
-      </c>
-      <c r="G113" s="37">
-        <v>8984</v>
-      </c>
+        <v>75486</v>
+      </c>
+      <c r="G113" s="37"/>
       <c r="H113" s="37">
-        <v>61247</v>
-      </c>
-      <c r="I113" s="37">
-        <v>9188</v>
-      </c>
+        <v>61108</v>
+      </c>
+      <c r="I113" s="37"/>
       <c r="J113" s="12" t="s">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="K113" s="13">
-        <v>5</v>
-      </c>
-      <c r="L113" s="9">
-        <f t="shared" si="30"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="L113" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M113" s="12" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="N113" s="13">
-        <v>5</v>
-      </c>
-      <c r="O113" s="9">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="P113" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q113" s="13">
-        <v>5</v>
-      </c>
-      <c r="R113" s="9">
-        <f t="shared" si="32"/>
-        <v>5</v>
-      </c>
-      <c r="S113" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="T113" s="14">
-        <v>20</v>
-      </c>
-      <c r="U113" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="V113" s="46">
-        <v>20</v>
-      </c>
-      <c r="W113" s="20"/>
-      <c r="X113" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="O113" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="13"/>
+      <c r="R113" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S113" s="14"/>
+      <c r="T113" s="14"/>
+      <c r="U113" s="14"/>
+      <c r="V113" s="14"/>
+      <c r="W113" s="14"/>
+      <c r="X113" s="14"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="11" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="C114" s="23">
-        <v>160</v>
-      </c>
-      <c r="D114" s="23">
-        <v>5</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D114" s="23"/>
       <c r="E114" s="41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F114" s="37">
-        <v>67211</v>
-      </c>
-      <c r="G114" s="37">
-        <v>8872</v>
-      </c>
+        <v>25684</v>
+      </c>
+      <c r="G114" s="37"/>
       <c r="H114" s="37">
-        <v>61426</v>
-      </c>
-      <c r="I114" s="37">
-        <v>8109</v>
-      </c>
-      <c r="J114" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K114" s="13">
-        <v>5</v>
-      </c>
-      <c r="L114" s="9">
-        <f t="shared" si="30"/>
-        <v>5</v>
-      </c>
-      <c r="M114" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N114" s="13">
-        <v>3</v>
-      </c>
-      <c r="O114" s="9">
-        <f t="shared" si="31"/>
-        <v>3</v>
-      </c>
-      <c r="P114" s="12"/>
+        <v>21964</v>
+      </c>
+      <c r="I114" s="37"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M114" s="12"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="9" t="str">
+        <f>IF($G114&gt;0,IF(N114="","",N114),"")</f>
+        <v/>
+      </c>
+      <c r="P114" s="128"/>
       <c r="Q114" s="13"/>
       <c r="R114" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="S114" s="14" t="s">
-        <v>48</v>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S114" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="T114" s="14">
         <v>20</v>
       </c>
-      <c r="U114" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="V114" s="14">
+      <c r="U114" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="V114" s="46">
         <v>20</v>
       </c>
-      <c r="W114" s="14"/>
+      <c r="W114" s="12"/>
       <c r="X114" s="14"/>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
@@ -14312,7 +14420,7 @@
         <v>3</v>
       </c>
       <c r="L115" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M115" s="44" t="s">
@@ -14322,13 +14430,13 @@
         <v>3</v>
       </c>
       <c r="O115" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f>IF($G115&gt;0,IF(N115="","",N115),"")</f>
         <v/>
       </c>
       <c r="P115" s="12"/>
       <c r="Q115" s="13"/>
       <c r="R115" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S115" s="14" t="s">
@@ -14347,607 +14455,419 @@
       <c r="X115" s="14"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B116" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C116" s="23">
-        <v>135</v>
-      </c>
-      <c r="D116" s="23">
-        <v>5</v>
-      </c>
+      <c r="B116" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" s="24">
+        <v>105</v>
+      </c>
+      <c r="D116" s="24"/>
       <c r="E116" s="41">
-        <v>1</v>
-      </c>
-      <c r="F116" s="37">
-        <v>34776</v>
-      </c>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37">
-        <v>39039</v>
+        <v>3</v>
+      </c>
+      <c r="F116" s="38">
+        <f>27073</f>
+        <v>27073</v>
+      </c>
+      <c r="G116" s="38"/>
+      <c r="H116" s="38">
+        <f>30131</f>
+        <v>30131</v>
       </c>
       <c r="I116" s="38"/>
       <c r="J116" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="K116" s="13">
-        <v>3</v>
+        <v>268</v>
+      </c>
+      <c r="K116" s="18">
+        <v>2</v>
       </c>
       <c r="L116" s="9" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="M116" s="71"/>
-      <c r="N116" s="13"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M116" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="N116" s="18">
+        <v>4</v>
+      </c>
       <c r="O116" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="13"/>
+        <f>IF($G116&gt;0,N116,"")</f>
+        <v/>
+      </c>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="18"/>
       <c r="R116" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="S116" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="T116" s="14">
-        <v>20</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S116" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T116" s="14"/>
       <c r="U116" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="V116" s="46">
-        <v>20</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="V116" s="46"/>
       <c r="W116" s="14"/>
-      <c r="X116" s="14"/>
+      <c r="X116" s="20"/>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="11" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="C117" s="23">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D117" s="23">
         <v>5</v>
       </c>
       <c r="E117" s="41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F117" s="37">
-        <v>41932</v>
+        <v>33836</v>
       </c>
       <c r="G117" s="37"/>
       <c r="H117" s="37">
-        <v>48169</v>
+        <v>29738</v>
       </c>
       <c r="I117" s="37"/>
       <c r="J117" s="12" t="s">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="K117" s="13">
+        <v>2</v>
+      </c>
+      <c r="L117" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="N117" s="13">
         <v>4</v>
       </c>
-      <c r="L117" s="9" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="M117" s="12"/>
-      <c r="N117" s="13"/>
       <c r="O117" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="13"/>
+        <f>IF($G117&gt;0,N117,"")</f>
+        <v/>
+      </c>
+      <c r="P117" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q117" s="13">
+        <v>2</v>
+      </c>
       <c r="R117" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S117" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="T117" s="14">
-        <v>20</v>
-      </c>
-      <c r="U117" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="V117" s="14">
-        <v>20</v>
-      </c>
-      <c r="W117" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="X117" s="46">
-        <v>20</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="T117" s="14"/>
+      <c r="U117" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="V117" s="46"/>
+      <c r="W117" s="14"/>
+      <c r="X117" s="14"/>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="11" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="C118" s="23">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="D118" s="23">
         <v>5</v>
       </c>
       <c r="E118" s="41">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F118" s="37">
-        <v>60936</v>
+        <v>41932</v>
       </c>
       <c r="G118" s="37"/>
       <c r="H118" s="37">
-        <v>58998</v>
+        <v>48169</v>
       </c>
       <c r="I118" s="37"/>
       <c r="J118" s="12" t="s">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="K118" s="13">
         <v>4</v>
       </c>
       <c r="L118" s="9" t="str">
-        <f>IF($G118&gt;0,IF(K118="","",K118),"")</f>
-        <v/>
-      </c>
-      <c r="M118" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N118" s="13">
-        <v>4</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M118" s="12"/>
+      <c r="N118" s="13"/>
       <c r="O118" s="9" t="str">
         <f>IF($G118&gt;0,IF(N118="","",N118),"")</f>
         <v/>
       </c>
-      <c r="P118" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q118" s="13">
-        <v>3</v>
-      </c>
+      <c r="P118" s="128"/>
+      <c r="Q118" s="13"/>
       <c r="R118" s="9" t="str">
-        <f>IF($G118&gt;0,IF(Q118="","",Q118),"")</f>
-        <v/>
-      </c>
-      <c r="S118" s="14" t="s">
-        <v>120</v>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S118" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="T118" s="14">
         <v>20</v>
       </c>
-      <c r="U118" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="V118" s="46">
+      <c r="U118" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="V118" s="14">
         <v>20</v>
       </c>
-      <c r="W118" s="14"/>
-      <c r="X118" s="14"/>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B119" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C119" s="23">
-        <v>160</v>
-      </c>
-      <c r="D119" s="23">
-        <v>5</v>
-      </c>
-      <c r="E119" s="41">
-        <v>4</v>
-      </c>
-      <c r="F119" s="37">
-        <v>55964</v>
-      </c>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37">
-        <v>50807</v>
-      </c>
-      <c r="I119" s="37"/>
-      <c r="J119" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K119" s="13">
-        <v>5</v>
-      </c>
-      <c r="L119" s="19" t="str">
-        <f t="shared" ref="L119" si="33">IF($G119&gt;0,K119,"")</f>
-        <v/>
-      </c>
-      <c r="M119" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N119" s="13">
-        <v>5</v>
-      </c>
-      <c r="O119" s="19" t="str">
-        <f>IF($G119&gt;0,N119,"")</f>
-        <v/>
-      </c>
-      <c r="P119" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q119" s="13">
-        <v>1</v>
-      </c>
-      <c r="R119" s="9" t="str">
-        <f t="shared" ref="R119" si="34">IF($G119&gt;0,IF(Q119="","",Q119),"")</f>
-        <v/>
-      </c>
-      <c r="S119" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="T119" s="14">
-        <v>30</v>
-      </c>
-      <c r="U119" s="14"/>
-      <c r="V119" s="14"/>
-      <c r="W119" s="14"/>
-      <c r="X119" s="14"/>
+      <c r="W118" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="X118" s="46">
+        <v>20</v>
+      </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B120" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C120" s="23">
-        <v>188</v>
-      </c>
-      <c r="D120" s="23">
-        <v>5</v>
-      </c>
-      <c r="E120" s="41">
-        <v>8</v>
-      </c>
-      <c r="F120" s="37">
-        <v>71733</v>
-      </c>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37">
-        <v>62351</v>
-      </c>
-      <c r="I120" s="37"/>
-      <c r="J120" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K120" s="13">
-        <v>5</v>
-      </c>
-      <c r="L120" s="9" t="str">
-        <f>IF($G120&gt;0,IF(K120="","",K120),"")</f>
-        <v/>
-      </c>
-      <c r="M120" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N120" s="13">
-        <v>3</v>
-      </c>
-      <c r="O120" s="9" t="str">
-        <f>IF($G120&gt;0,IF(N120="","",N120),"")</f>
-        <v/>
-      </c>
-      <c r="Q120" s="13"/>
-      <c r="R120" s="9" t="str">
-        <f>IF($G120&gt;0,IF(Q120="","",Q120),"")</f>
-        <v/>
-      </c>
-      <c r="S120" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="T120" s="14">
-        <v>30</v>
-      </c>
-      <c r="U120" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="V120" s="14">
-        <v>30</v>
-      </c>
-      <c r="W120" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="X120" s="46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B121" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C121" s="23">
-        <v>180</v>
-      </c>
-      <c r="D121" s="23"/>
-      <c r="E121" s="41">
-        <v>8</v>
-      </c>
-      <c r="F121" s="37">
-        <v>25684</v>
-      </c>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37">
-        <v>21964</v>
-      </c>
-      <c r="I121" s="37"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="9" t="str">
-        <f t="shared" ref="L121" si="35">IF($G121&gt;0,IF(K121="","",K121),"")</f>
-        <v/>
-      </c>
-      <c r="M121" s="12"/>
-      <c r="N121" s="13"/>
-      <c r="O121" s="9" t="str">
-        <f t="shared" ref="O121" si="36">IF($G121&gt;0,IF(N121="","",N121),"")</f>
-        <v/>
-      </c>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="13"/>
-      <c r="R121" s="9" t="str">
-        <f t="shared" ref="R121" si="37">IF($G121&gt;0,IF(Q121="","",Q121),"")</f>
-        <v/>
-      </c>
-      <c r="S121" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="T121" s="14">
-        <v>20</v>
-      </c>
-      <c r="U121" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="V121" s="46">
-        <v>20</v>
-      </c>
-      <c r="W121" s="14"/>
-      <c r="X121" s="14"/>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="15" t="s">
+      <c r="A120" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B120" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C123" s="15">
+      <c r="C120" s="15">
         <v>105</v>
       </c>
-      <c r="E123" s="15">
-        <v>3</v>
-      </c>
-      <c r="F123" s="15">
+      <c r="E120" s="15">
+        <v>3</v>
+      </c>
+      <c r="F120" s="15">
         <v>30270</v>
       </c>
-      <c r="H123" s="15">
+      <c r="H120" s="15">
         <v>24434</v>
       </c>
-      <c r="J123" s="15" t="s">
+      <c r="J120" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="K123" s="15">
+      <c r="K120" s="15">
         <v>2</v>
       </c>
-      <c r="L123" s="15" t="s">
+      <c r="L120" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="M123" s="15" t="s">
+      <c r="M120" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="N123" s="15">
-        <v>1</v>
-      </c>
-      <c r="O123" s="15" t="s">
+      <c r="N120" s="15">
+        <v>1</v>
+      </c>
+      <c r="O120" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="R123" s="15" t="s">
+      <c r="R120" s="15" t="s">
         <v>315</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:X42" xr:uid="{978EADD4-0314-4072-8E50-8E2F74C9AE41}"/>
+  <autoFilter ref="B4:X73" xr:uid="{9BCBA8FB-058F-4F5A-ABD2-0B833FDE9776}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E94 E91:E92 E102 E5 E72 E108:E110 E112:E113 E70 E44:E53 E120 E7:E25 E27:E42 E55:E64 E66:E68 E115:E118">
-    <cfRule type="expression" dxfId="104" priority="62">
+  <conditionalFormatting sqref="E99 E5 E72 E114 E66:E70 E26:E33 E35:E42 E7:E24 E116:E118 E104:E108 E44:E63 E89:E91 E110:E112">
+    <cfRule type="expression" dxfId="103" priority="66">
       <formula>E5=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="expression" dxfId="103" priority="60">
-      <formula>E120=8</formula>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="expression" dxfId="102" priority="64">
+      <formula>E114=8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="101" priority="58">
+      <formula>E43=8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" dxfId="102" priority="59">
+    <cfRule type="expression" dxfId="100" priority="52">
       <formula>E93=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="101" priority="54">
-      <formula>E43=8</formula>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" dxfId="99" priority="51">
+      <formula>E94=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
-    <cfRule type="expression" dxfId="100" priority="50">
-      <formula>E62=8</formula>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" dxfId="98" priority="50">
+      <formula>E92=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="99" priority="49">
-      <formula>E90=8</formula>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" dxfId="97" priority="49">
+      <formula>E92=8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="expression" dxfId="96" priority="47">
+      <formula>E95=8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="expression" dxfId="98" priority="48">
+    <cfRule type="expression" dxfId="95" priority="45">
       <formula>E96=8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" dxfId="97" priority="47">
+    <cfRule type="expression" dxfId="94" priority="44">
       <formula>E97=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="96" priority="46">
-      <formula>E95=8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="95" priority="45">
-      <formula>E95=8</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="94" priority="43">
+    <cfRule type="expression" dxfId="93" priority="43">
       <formula>E98=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="93" priority="41">
-      <formula>E99=8</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="92" priority="40">
+    <cfRule type="expression" dxfId="92" priority="41">
       <formula>E100=8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="91" priority="39">
+    <cfRule type="expression" dxfId="91" priority="40">
       <formula>E101=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="expression" dxfId="90" priority="37">
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="90" priority="39">
+      <formula>E30=8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E12">
+    <cfRule type="expression" dxfId="89" priority="37">
+      <formula>E11=8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="88" priority="36">
+      <formula>E102=8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103:E106">
+    <cfRule type="expression" dxfId="87" priority="35">
       <formula>E103=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="89" priority="36">
-      <formula>E104=8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="88" priority="35">
-      <formula>E105=8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="87" priority="33">
-      <formula>E11=8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="86" priority="32">
-      <formula>E106=8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107:E110">
-    <cfRule type="expression" dxfId="85" priority="31">
-      <formula>E107=8</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="84" priority="30">
+    <cfRule type="expression" dxfId="86" priority="34">
       <formula>E6=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="83" priority="29">
-      <formula>E33=8</formula>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="85" priority="33">
+      <formula>E27=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="82" priority="28">
-      <formula>E69=8</formula>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="84" priority="32">
+      <formula>E68=8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="81" priority="27">
+    <cfRule type="expression" dxfId="83" priority="31">
       <formula>E71=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E111:E113">
-    <cfRule type="expression" dxfId="80" priority="25">
-      <formula>E111=8</formula>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="expression" dxfId="82" priority="27">
+      <formula>E109=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="expression" dxfId="79" priority="23">
-      <formula>E114=8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="expression" dxfId="78" priority="22">
-      <formula>E114=8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="77" priority="20">
-      <formula>E89=8</formula>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="expression" dxfId="81" priority="26">
+      <formula>E109=8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="76" priority="18">
+    <cfRule type="expression" dxfId="80" priority="22">
       <formula>E39=8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E39">
-    <cfRule type="expression" dxfId="75" priority="17">
+    <cfRule type="expression" dxfId="79" priority="21">
       <formula>E38=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="74" priority="16">
-      <formula>E26=8</formula>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="78" priority="20">
+      <formula>E25=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="73" priority="15">
-      <formula>E68=8</formula>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="77" priority="19">
+      <formula>E69=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="72" priority="14">
-      <formula>E68=8</formula>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="76" priority="18">
+      <formula>E69=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:E66">
-    <cfRule type="expression" dxfId="71" priority="13">
-      <formula>E65=8</formula>
+  <conditionalFormatting sqref="E64 E66">
+    <cfRule type="expression" dxfId="75" priority="17">
+      <formula>E64=8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="70" priority="11">
+    <cfRule type="expression" dxfId="74" priority="15">
       <formula>E37=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119:E120">
-    <cfRule type="expression" dxfId="69" priority="10">
-      <formula>E119=8</formula>
+  <conditionalFormatting sqref="E113:E114">
+    <cfRule type="expression" dxfId="73" priority="14">
+      <formula>E113=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119:E120">
-    <cfRule type="expression" dxfId="68" priority="9">
-      <formula>E119=8</formula>
+  <conditionalFormatting sqref="E113:E114">
+    <cfRule type="expression" dxfId="72" priority="13">
+      <formula>E113=8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="expression" dxfId="71" priority="10">
+      <formula>E112=8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E118">
+    <cfRule type="expression" dxfId="70" priority="11">
+      <formula>E115=8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="expression" dxfId="69" priority="9">
+      <formula>E112=8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="expression" dxfId="67" priority="6">
+    <cfRule type="expression" dxfId="68" priority="8">
       <formula>E118=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="expression" dxfId="66" priority="7">
-      <formula>E121=8</formula>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="expression" dxfId="67" priority="7">
+      <formula>E118=8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="expression" dxfId="66" priority="6">
+      <formula>E118=8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
@@ -14955,24 +14875,24 @@
       <formula>E118=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="E34">
     <cfRule type="expression" dxfId="64" priority="4">
-      <formula>E54=8</formula>
+      <formula>E34=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="E65">
     <cfRule type="expression" dxfId="63" priority="3">
-      <formula>E54=8</formula>
+      <formula>E65=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="E65">
     <cfRule type="expression" dxfId="62" priority="2">
-      <formula>E54=8</formula>
+      <formula>E65=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="E65">
     <cfRule type="expression" dxfId="61" priority="1">
-      <formula>E54=8</formula>
+      <formula>E65=8</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14985,7 +14905,7 @@
   <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -15189,10 +15109,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560D79C1-DDD3-4A22-B0D6-B491AFCAAFA2}">
-  <dimension ref="B1:K15"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -15200,7 +15120,7 @@
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C1">
         <v>13</v>
       </c>
@@ -15214,7 +15134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C2">
         <v>0.4</v>
       </c>
@@ -15228,7 +15148,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C3">
         <f>C1-C15</f>
         <v>0</v>
@@ -15245,8 +15165,26 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="M3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N3" t="s">
+        <v>363</v>
+      </c>
+      <c r="O3" t="s">
+        <v>364</v>
+      </c>
+      <c r="P3" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>4</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>187</v>
       </c>
@@ -15260,9 +15198,30 @@
         <f>$C$2*C4+$D$2*D4+$E$2*E4+$F$2*F4</f>
         <v>1.3</v>
       </c>
-      <c r="K4" s="125"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" t="s">
+        <v>359</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f>SUM(M4:Q4)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="11" t="s">
         <v>191</v>
       </c>
@@ -15279,9 +15238,23 @@
         <f t="shared" ref="G5:G14" si="1">$C$2*C5+$D$2*D5+$E$2*E5+$F$2*F5</f>
         <v>1.25</v>
       </c>
-      <c r="K5" s="125"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5" t="s">
+        <v>360</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" s="11" t="s">
         <v>214</v>
       </c>
@@ -15298,9 +15271,20 @@
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="K6" s="125"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" t="s">
+        <v>361</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" s="11" t="s">
         <v>199</v>
       </c>
@@ -15318,7 +15302,10 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>4</v>
+      </c>
       <c r="B8" s="11" t="s">
         <v>201</v>
       </c>
@@ -15336,7 +15323,10 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>4</v>
+      </c>
       <c r="B9" s="16" t="s">
         <v>205</v>
       </c>
@@ -15354,7 +15344,10 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>4</v>
+      </c>
       <c r="B10" s="16" t="s">
         <v>207</v>
       </c>
@@ -15372,7 +15365,10 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>4</v>
+      </c>
       <c r="B11" s="11" t="s">
         <v>210</v>
       </c>
@@ -15390,9 +15386,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>4</v>
+      </c>
       <c r="B12" s="11" t="s">
-        <v>228</v>
+        <v>369</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -15405,7 +15404,10 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>4</v>
+      </c>
       <c r="B13" s="11" t="s">
         <v>325</v>
       </c>
@@ -15420,7 +15422,10 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>4</v>
+      </c>
       <c r="B14" s="16" t="s">
         <v>230</v>
       </c>
@@ -15432,7 +15437,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C15">
         <f>SUM(C4:C14)</f>
         <v>13</v>
@@ -15447,6 +15452,286 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20">
+        <v>0.4</v>
+      </c>
+      <c r="D20">
+        <v>0.35</v>
+      </c>
+      <c r="E20">
+        <v>0.3</v>
+      </c>
+      <c r="F20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21">
+        <f>C19-C33</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:F21" si="3">D19-D33</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f>$C$2*C22+$D$2*D22+$E$2*E22+$F$2*F22</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G32" si="4">$C$2*C23+$D$2*D23+$E$2*E23+$F$2*F23</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33">
+        <f>SUM(C22:C32)</f>
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:F33" si="5">SUM(D22:D32)</f>
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -16725,7 +17010,7 @@
       </c>
       <c r="B10">
         <f t="shared" ref="B10:L10" si="35">IF(A10&lt;&gt;"",SUMPRODUCT(ISNUMBER(FIND($A10,デッキ補助名1)*1)*(デッキ補助数1=B$1))+SUMPRODUCT(ISNUMBER(FIND($A10,デッキ補助名2)*1)*(デッキ補助数2=B$1))+SUMPRODUCT(ISNUMBER(FIND($A10,デッキ補助名3)*1)*(デッキ補助数3=B$1)),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" si="35"/>
@@ -16769,15 +17054,15 @@
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10" s="116">
         <f t="shared" si="20"/>
-        <v>94.662648027635015</v>
+        <v>96.496028430142388</v>
       </c>
       <c r="O10" s="116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">30x5 </v>
+        <v xml:space="preserve">20x1 30x5 </v>
       </c>
       <c r="P10" s="115">
         <v>5</v>
@@ -16787,7 +17072,7 @@
       </c>
       <c r="R10" s="115">
         <f>(1-((R$1*$Q10+($P10-$Q10)+$N$2)/100))^B10</f>
-        <v>1</v>
+        <v>0.65649999999999997</v>
       </c>
       <c r="S10" s="115">
         <f t="shared" si="22"/>
@@ -16831,7 +17116,7 @@
       </c>
       <c r="AC10" s="115" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v xml:space="preserve">20x1 </v>
       </c>
       <c r="AD10" s="115" t="str">
         <f t="shared" si="8"/>
@@ -16880,7 +17165,7 @@
       </c>
       <c r="B11">
         <f t="shared" ref="B11:L11" si="36">IF(A11&lt;&gt;"",SUMPRODUCT(ISNUMBER(FIND($A11,デッキ補助名1)*1)*(デッキ補助数1=B$1))+SUMPRODUCT(ISNUMBER(FIND($A11,デッキ補助名2)*1)*(デッキ補助数2=B$1))+SUMPRODUCT(ISNUMBER(FIND($A11,デッキ補助名3)*1)*(デッキ補助数3=B$1)),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" si="36"/>
@@ -16920,7 +17205,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
@@ -16928,11 +17213,11 @@
       </c>
       <c r="N11" s="116">
         <f t="shared" si="20"/>
-        <v>99.780299217993758</v>
+        <v>99.577342375493743</v>
       </c>
       <c r="O11" s="116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">30x4 </v>
+        <v xml:space="preserve">20x1 30x3 </v>
       </c>
       <c r="P11" s="115">
         <v>10</v>
@@ -16942,7 +17227,7 @@
       </c>
       <c r="R11" s="115">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0.41649999999999998</v>
       </c>
       <c r="S11" s="115">
         <f t="shared" si="22"/>
@@ -16982,11 +17267,11 @@
       </c>
       <c r="AB11" s="115">
         <f t="shared" si="31"/>
-        <v>2.1970078200625009E-3</v>
+        <v>1.0147842125000004E-2</v>
       </c>
       <c r="AC11" s="115" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v xml:space="preserve">20x1 </v>
       </c>
       <c r="AD11" s="115" t="str">
         <f t="shared" si="8"/>
@@ -17026,7 +17311,7 @@
       </c>
       <c r="AM11" s="115" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">30x4 </v>
+        <v xml:space="preserve">30x3 </v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -17385,19 +17670,19 @@
       </c>
       <c r="L14">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="116">
         <f t="shared" si="20"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="O14" s="116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">30x1 </v>
+        <v/>
       </c>
       <c r="P14" s="115">
         <v>10</v>
@@ -17447,7 +17732,7 @@
       </c>
       <c r="AB14" s="115">
         <f t="shared" si="31"/>
-        <v>0.79649999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="115" t="str">
         <f t="shared" si="7"/>
@@ -17491,7 +17776,7 @@
       </c>
       <c r="AM14" s="115" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">30x1 </v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -18160,19 +18445,19 @@
       </c>
       <c r="L19">
         <f t="shared" si="70"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" s="116">
         <f t="shared" si="20"/>
-        <v>93.703555130534397</v>
+        <v>88.68563365774375</v>
       </c>
       <c r="O19" s="116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">20x1 30x4 </v>
+        <v xml:space="preserve">20x1 30x3 </v>
       </c>
       <c r="P19" s="115">
         <v>5</v>
@@ -18222,7 +18507,7 @@
       </c>
       <c r="AB19" s="115">
         <f t="shared" si="31"/>
-        <v>9.5909289710062504E-2</v>
+        <v>0.17234373712500001</v>
       </c>
       <c r="AC19" s="115" t="str">
         <f t="shared" si="7"/>
@@ -18266,7 +18551,7 @@
       </c>
       <c r="AM19" s="115" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">30x4 </v>
+        <v xml:space="preserve">30x3 </v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -18275,7 +18560,7 @@
       </c>
       <c r="B20">
         <f t="shared" ref="B20:L20" si="71">IF(A20&lt;&gt;"",SUMPRODUCT(ISNUMBER(FIND($A20,デッキ補助名1)*1)*(デッキ補助数1=B$1))+SUMPRODUCT(ISNUMBER(FIND($A20,デッキ補助名2)*1)*(デッキ補助数2=B$1))+SUMPRODUCT(ISNUMBER(FIND($A20,デッキ補助名3)*1)*(デッキ補助数3=B$1)),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <f t="shared" si="71"/>
@@ -18315,7 +18600,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="71"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
@@ -18323,11 +18608,11 @@
       </c>
       <c r="N20" s="116">
         <f t="shared" si="20"/>
-        <v>86.652504036493752</v>
+        <v>88.68563365774375</v>
       </c>
       <c r="O20" s="116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">20x2 30x2 </v>
+        <v xml:space="preserve">20x1 30x3 </v>
       </c>
       <c r="P20" s="115">
         <v>5</v>
@@ -18337,7 +18622,7 @@
       </c>
       <c r="R20" s="115">
         <f t="shared" si="21"/>
-        <v>0.43099224999999997</v>
+        <v>0.65649999999999997</v>
       </c>
       <c r="S20" s="115">
         <f t="shared" si="22"/>
@@ -18377,11 +18662,11 @@
       </c>
       <c r="AB20" s="115">
         <f t="shared" si="31"/>
-        <v>0.30969225</v>
+        <v>0.17234373712500001</v>
       </c>
       <c r="AC20" s="115" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">20x2 </v>
+        <v xml:space="preserve">20x1 </v>
       </c>
       <c r="AD20" s="115" t="str">
         <f t="shared" si="8"/>
@@ -18421,7 +18706,7 @@
       </c>
       <c r="AM20" s="115" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">30x2 </v>
+        <v xml:space="preserve">30x3 </v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -19205,7 +19490,7 @@
       </c>
       <c r="B26">
         <f t="shared" ref="B26:L26" si="90">IF(A26&lt;&gt;"",SUMPRODUCT(ISNUMBER(FIND($A26,デッキ補助名1)*1)*(デッキ補助数1=B$1))+SUMPRODUCT(ISNUMBER(FIND($A26,デッキ補助名2)*1)*(デッキ補助数2=B$1))+SUMPRODUCT(ISNUMBER(FIND($A26,デッキ補助名3)*1)*(デッキ補助数3=B$1)),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <f t="shared" si="90"/>
@@ -19249,15 +19534,15 @@
       </c>
       <c r="M26">
         <f t="shared" si="76"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" s="116">
         <f t="shared" si="77"/>
-        <v>47.566227537500005</v>
+        <v>35.782274999999998</v>
       </c>
       <c r="O26" s="116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">20x2 30x1 </v>
+        <v xml:space="preserve">20x1 30x1 </v>
       </c>
       <c r="P26" s="115">
         <v>2.2999999999999998</v>
@@ -19267,7 +19552,7 @@
       </c>
       <c r="R26" s="115">
         <f t="shared" si="78"/>
-        <v>0.66667224999999997</v>
+        <v>0.8165</v>
       </c>
       <c r="S26" s="115">
         <f t="shared" si="79"/>
@@ -19311,7 +19596,7 @@
       </c>
       <c r="AC26" s="115" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">20x2 </v>
+        <v xml:space="preserve">20x1 </v>
       </c>
       <c r="AD26" s="115" t="str">
         <f t="shared" si="8"/>
@@ -19360,7 +19645,7 @@
       </c>
       <c r="B27">
         <f t="shared" ref="B27:L27" si="91">IF(A27&lt;&gt;"",SUMPRODUCT(ISNUMBER(FIND($A27,デッキ補助名1)*1)*(デッキ補助数1=B$1))+SUMPRODUCT(ISNUMBER(FIND($A27,デッキ補助名2)*1)*(デッキ補助数2=B$1))+SUMPRODUCT(ISNUMBER(FIND($A27,デッキ補助名3)*1)*(デッキ補助数3=B$1)),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <f t="shared" si="91"/>
@@ -19404,15 +19689,15 @@
       </c>
       <c r="M27">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="116">
         <f t="shared" si="77"/>
-        <v>18.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="O27" s="116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">20x1 </v>
+        <v/>
       </c>
       <c r="P27" s="115">
         <v>2.2999999999999998</v>
@@ -19422,7 +19707,7 @@
       </c>
       <c r="R27" s="115">
         <f t="shared" si="78"/>
-        <v>0.8165</v>
+        <v>1</v>
       </c>
       <c r="S27" s="115">
         <f t="shared" si="79"/>
@@ -19466,7 +19751,7 @@
       </c>
       <c r="AC27" s="115" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">20x1 </v>
+        <v/>
       </c>
       <c r="AD27" s="115" t="str">
         <f t="shared" si="8"/>
@@ -19515,7 +19800,7 @@
       </c>
       <c r="B28">
         <f t="shared" ref="B28:L28" si="92">IF(A28&lt;&gt;"",SUMPRODUCT(ISNUMBER(FIND($A28,デッキ補助名1)*1)*(デッキ補助数1=B$1))+SUMPRODUCT(ISNUMBER(FIND($A28,デッキ補助名2)*1)*(デッキ補助数2=B$1))+SUMPRODUCT(ISNUMBER(FIND($A28,デッキ補助名3)*1)*(デッキ補助数3=B$1)),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <f t="shared" si="92"/>
@@ -19559,15 +19844,15 @@
       </c>
       <c r="M28">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" s="116">
         <f t="shared" si="77"/>
-        <v>20.450000000000003</v>
+        <v>35.047424999999997</v>
       </c>
       <c r="O28" s="116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">27x1 </v>
+        <v xml:space="preserve">20x1 27x1 </v>
       </c>
       <c r="P28" s="115">
         <v>2.2999999999999998</v>
@@ -19577,7 +19862,7 @@
       </c>
       <c r="R28" s="115">
         <f t="shared" si="78"/>
-        <v>1</v>
+        <v>0.8165</v>
       </c>
       <c r="S28" s="115">
         <f t="shared" si="79"/>
@@ -19621,7 +19906,7 @@
       </c>
       <c r="AC28" s="115" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v xml:space="preserve">20x1 </v>
       </c>
       <c r="AD28" s="115" t="str">
         <f t="shared" si="8"/>
@@ -20755,7 +21040,7 @@
       </c>
       <c r="B36">
         <f t="shared" ref="B36:L36" si="100">IF(A36&lt;&gt;"",SUMPRODUCT(ISNUMBER(FIND($A36,デッキ補助名1)*1)*(デッキ補助数1=B$1))+SUMPRODUCT(ISNUMBER(FIND($A36,デッキ補助名2)*1)*(デッキ補助数2=B$1))+SUMPRODUCT(ISNUMBER(FIND($A36,デッキ補助名3)*1)*(デッキ補助数3=B$1)),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <f t="shared" si="100"/>
@@ -20799,15 +21084,15 @@
       </c>
       <c r="M36">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="116">
         <f t="shared" si="77"/>
-        <v>34.35</v>
+        <v>0</v>
       </c>
       <c r="O36" s="116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">20x1 </v>
+        <v/>
       </c>
       <c r="P36" s="115">
         <v>5</v>
@@ -20817,7 +21102,7 @@
       </c>
       <c r="R36" s="115">
         <f t="shared" si="78"/>
-        <v>0.65649999999999997</v>
+        <v>1</v>
       </c>
       <c r="S36" s="115">
         <f t="shared" si="79"/>
@@ -20861,7 +21146,7 @@
       </c>
       <c r="AC36" s="115" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">20x1 </v>
+        <v/>
       </c>
       <c r="AD36" s="115" t="str">
         <f t="shared" si="8"/>
